--- a/ticker_list_updated.xlsx
+++ b/ticker_list_updated.xlsx
@@ -436,27 +436,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>cpnyID</t>
+          <t>company_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>stock_code</t>
+          <t>ticker</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CodeID</t>
+          <t>code_id</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ex</t>
+          <t>ex</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>company_name</t>
         </is>
       </c>
     </row>

--- a/ticker_list_updated.xlsx
+++ b/ticker_list_updated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1811"/>
+  <dimension ref="A1:E1812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35077,11 +35077,11 @@
     </row>
     <row r="1507">
       <c r="A1507" t="n">
-        <v>159</v>
+        <v>2507</v>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>TKU</t>
+          <t>TKG</t>
         </is>
       </c>
       <c r="C1507" t="n">
@@ -35094,17 +35094,17 @@
       </c>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Công Nghiệp Tung Kuang</t>
+          <t>Công ty Cổ phần Sản xuất và Thương mại Tùng Khánh</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="n">
-        <v>1285</v>
+        <v>159</v>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>TL4</t>
+          <t>TKU</t>
         </is>
       </c>
       <c r="C1508" t="n">
@@ -35112,22 +35112,22 @@
       </c>
       <c r="D1508" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>Tổng công ty Xây dựng Thủy lợi 4 - Công ty Cổ phần</t>
+          <t>Công ty Cổ phần Công Nghiệp Tung Kuang</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="n">
-        <v>1852</v>
+        <v>1285</v>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>TLD</t>
+          <t>TL4</t>
         </is>
       </c>
       <c r="C1509" t="n">
@@ -35135,22 +35135,22 @@
       </c>
       <c r="D1509" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư xây dựng và Phát triển đô thị Thăng Long</t>
+          <t>Tổng công ty Xây dựng Thủy lợi 4 - Công ty Cổ phần</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="n">
-        <v>693</v>
+        <v>1852</v>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>TLG</t>
+          <t>TLD</t>
         </is>
       </c>
       <c r="C1510" t="n">
@@ -35163,17 +35163,17 @@
       </c>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tập đoàn Thiên Long</t>
+          <t>Công ty Cổ phần Đầu tư xây dựng và Phát triển đô thị Thăng Long</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="n">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>TLG</t>
         </is>
       </c>
       <c r="C1511" t="n">
@@ -35186,17 +35186,17 @@
       </c>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tập đoàn thép Tiến Lên</t>
+          <t>Công ty Cổ phần Tập đoàn Thiên Long</t>
         </is>
       </c>
     </row>
     <row r="1512">
       <c r="A1512" t="n">
-        <v>2001</v>
+        <v>716</v>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>TLI</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="C1512" t="n">
@@ -35204,22 +35204,22 @@
       </c>
       <c r="D1512" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1512" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần May Quốc Tế Thắng Lợi </t>
+          <t>Công ty Cổ phần Tập đoàn thép Tiến Lên</t>
         </is>
       </c>
     </row>
     <row r="1513">
       <c r="A1513" t="n">
-        <v>1893</v>
+        <v>2001</v>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>TLP</t>
+          <t>TLI</t>
         </is>
       </c>
       <c r="C1513" t="n">
@@ -35232,17 +35232,17 @@
       </c>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>Tổng công ty Thương mại Xuất nhập khẩu Thanh Lễ - Công ty Cổ phần</t>
+          <t xml:space="preserve">Công ty Cổ phần May Quốc Tế Thắng Lợi </t>
         </is>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" t="n">
-        <v>161</v>
+        <v>1893</v>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>TLT</t>
+          <t>TLP</t>
         </is>
       </c>
       <c r="C1514" t="n">
@@ -35255,17 +35255,17 @@
       </c>
       <c r="E1514" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Viglacera Thăng Long </t>
+          <t>Tổng công ty Thương mại Xuất nhập khẩu Thanh Lễ - Công ty Cổ phần</t>
         </is>
       </c>
     </row>
     <row r="1515">
       <c r="A1515" t="n">
-        <v>1583</v>
+        <v>161</v>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>TMB</t>
+          <t>TLT</t>
         </is>
       </c>
       <c r="C1515" t="n">
@@ -35273,22 +35273,22 @@
       </c>
       <c r="D1515" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Kinh doanh Than Miền Bắc - Vinacomin</t>
+          <t xml:space="preserve">Công ty Cổ phần Viglacera Thăng Long </t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="n">
-        <v>162</v>
+        <v>1583</v>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>TMC</t>
+          <t>TMB</t>
         </is>
       </c>
       <c r="C1516" t="n">
@@ -35301,17 +35301,17 @@
       </c>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Thương mại Xuất nhập khẩu Thủ Đức</t>
+          <t>Công ty Cổ phần Kinh doanh Than Miền Bắc - Vinacomin</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="n">
-        <v>1543</v>
+        <v>162</v>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>TMG</t>
+          <t>TMC</t>
         </is>
       </c>
       <c r="C1517" t="n">
@@ -35319,22 +35319,22 @@
       </c>
       <c r="D1517" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Kim loại màu Thái Nguyên - Vimico</t>
+          <t>Công ty Cổ phần Thương mại Xuất nhập khẩu Thủ Đức</t>
         </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="n">
-        <v>489</v>
+        <v>1543</v>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>TMP</t>
+          <t>TMG</t>
         </is>
       </c>
       <c r="C1518" t="n">
@@ -35342,22 +35342,22 @@
       </c>
       <c r="D1518" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1518" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Thủy điện Thác Mơ </t>
+          <t>Công ty Cổ phần Kim loại màu Thái Nguyên - Vimico</t>
         </is>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="n">
-        <v>163</v>
+        <v>489</v>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>TMS</t>
+          <t>TMP</t>
         </is>
       </c>
       <c r="C1519" t="n">
@@ -35370,17 +35370,17 @@
       </c>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Transimex</t>
+          <t xml:space="preserve">Công ty Cổ phần Thủy điện Thác Mơ </t>
         </is>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="n">
-        <v>672</v>
+        <v>163</v>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>TMT</t>
+          <t>TMS</t>
         </is>
       </c>
       <c r="C1520" t="n">
@@ -35393,17 +35393,17 @@
       </c>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Ô tô TMT</t>
+          <t>Công ty Cổ phần Transimex</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="n">
-        <v>604</v>
+        <v>672</v>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>TMW</t>
+          <t>TMT</t>
         </is>
       </c>
       <c r="C1521" t="n">
@@ -35411,22 +35411,22 @@
       </c>
       <c r="D1521" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tổng hợp Gỗ Tân Mai</t>
+          <t>Công ty Cổ phần Ô tô TMT</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="n">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>TMX</t>
+          <t>TMW</t>
         </is>
       </c>
       <c r="C1522" t="n">
@@ -35434,22 +35434,22 @@
       </c>
       <c r="D1522" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1522" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần VICEM Thương mại Xi măng </t>
+          <t>Công ty Cổ phần Tổng hợp Gỗ Tân Mai</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="n">
-        <v>2031</v>
+        <v>575</v>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>TN1</t>
+          <t>TMX</t>
         </is>
       </c>
       <c r="C1523" t="n">
@@ -35457,22 +35457,22 @@
       </c>
       <c r="D1523" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1523" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Thương mại Dịch vụ TNS Holdings </t>
+          <t xml:space="preserve">Công ty Cổ phần VICEM Thương mại Xi măng </t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="n">
-        <v>2970</v>
+        <v>2031</v>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>TN1122016</t>
+          <t>TN1</t>
         </is>
       </c>
       <c r="C1524" t="n">
@@ -35480,22 +35480,22 @@
       </c>
       <c r="D1524" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>Trái phiếu Công ty Cổ phần Thương mại Dịch vụ TNS Holdings 2021</t>
+          <t xml:space="preserve">Công ty Cổ phần Thương mại Dịch vụ TNS Holdings </t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="n">
-        <v>164</v>
+        <v>2970</v>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>TNA</t>
+          <t>TN1122016</t>
         </is>
       </c>
       <c r="C1525" t="n">
@@ -35503,22 +35503,22 @@
       </c>
       <c r="D1525" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Thương mại Xuất nhập khẩu Thiên Nam</t>
+          <t>Trái phiếu Công ty Cổ phần Thương mại Dịch vụ TNS Holdings 2021</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="n">
-        <v>719</v>
+        <v>164</v>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>TNB</t>
+          <t>TNA</t>
         </is>
       </c>
       <c r="C1526" t="n">
@@ -35526,22 +35526,22 @@
       </c>
       <c r="D1526" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Thép Nhà Bè - VNSTEEL</t>
+          <t>Công ty Cổ phần Thương mại Xuất nhập khẩu Thiên Nam</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="n">
-        <v>221</v>
+        <v>719</v>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>TNC</t>
+          <t>TNB</t>
         </is>
       </c>
       <c r="C1527" t="n">
@@ -35549,22 +35549,22 @@
       </c>
       <c r="D1527" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Cao su Thống Nhất</t>
+          <t>Công ty Cổ phần Thép Nhà Bè - VNSTEEL</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="n">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>TNG</t>
+          <t>TNC</t>
         </is>
       </c>
       <c r="C1528" t="n">
@@ -35572,22 +35572,22 @@
       </c>
       <c r="D1528" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư và Thương mại TNG</t>
+          <t>Công ty Cổ phần Cao su Thống Nhất</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="n">
-        <v>2971</v>
+        <v>257</v>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>TNG119007</t>
+          <t>TNG</t>
         </is>
       </c>
       <c r="C1529" t="n">
@@ -35600,17 +35600,17 @@
       </c>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>Trái phiếu CTCP Đầu tư và Thương mại TNG năm 2019</t>
+          <t>Công ty Cổ phần Đầu tư và Thương mại TNG</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="n">
-        <v>2994</v>
+        <v>2971</v>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>TNG122017</t>
+          <t>TNG119007</t>
         </is>
       </c>
       <c r="C1530" t="n">
@@ -35623,17 +35623,17 @@
       </c>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>Trái phiếu Công ty cổ phần Đầu tư và Thương mại TNG năm 2021</t>
+          <t>Trái phiếu CTCP Đầu tư và Thương mại TNG năm 2019</t>
         </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="n">
-        <v>1860</v>
+        <v>2994</v>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>TNH</t>
+          <t>TNG122017</t>
         </is>
       </c>
       <c r="C1531" t="n">
@@ -35641,22 +35641,22 @@
       </c>
       <c r="D1531" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>Công ty Cổ Phần Bệnh viện Quốc tế Thái Nguyên</t>
+          <t>Trái phiếu Công ty cổ phần Đầu tư và Thương mại TNG năm 2021</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="n">
-        <v>1471</v>
+        <v>1860</v>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>TNI</t>
+          <t>TNH</t>
         </is>
       </c>
       <c r="C1532" t="n">
@@ -35669,17 +35669,17 @@
       </c>
       <c r="E1532" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Tập đoàn Thành Nam </t>
+          <t>Công ty Cổ Phần Bệnh viện Quốc tế Thái Nguyên</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="n">
-        <v>549</v>
+        <v>1471</v>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>TNM</t>
+          <t>TNI</t>
         </is>
       </c>
       <c r="C1533" t="n">
@@ -35687,22 +35687,22 @@
       </c>
       <c r="D1533" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1533" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Xuất nhập khẩu và Xây dựng Công trình </t>
+          <t xml:space="preserve">Công ty Cổ phần Tập đoàn Thành Nam </t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="n">
-        <v>1622</v>
+        <v>549</v>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>TNP</t>
+          <t>TNM</t>
         </is>
       </c>
       <c r="C1534" t="n">
@@ -35715,17 +35715,17 @@
       </c>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Cảng Thị Nại</t>
+          <t xml:space="preserve">Công ty Cổ phần Xuất nhập khẩu và Xây dựng Công trình </t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="n">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>TNP</t>
         </is>
       </c>
       <c r="C1535" t="n">
@@ -35738,17 +35738,17 @@
       </c>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Thép tấm lá Thống Nhất</t>
+          <t>Công ty Cổ phần Cảng Thị Nại</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="n">
-        <v>810</v>
+        <v>1628</v>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>TNT</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="C1536" t="n">
@@ -35756,22 +35756,22 @@
       </c>
       <c r="D1536" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tập đoàn TNT</t>
+          <t>Công ty Cổ phần Thép tấm lá Thống Nhất</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="n">
-        <v>1758</v>
+        <v>810</v>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>TNW</t>
+          <t>TNT</t>
         </is>
       </c>
       <c r="C1537" t="n">
@@ -35779,22 +35779,22 @@
       </c>
       <c r="D1537" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>CTCP Nước sạch Thái Nguyên</t>
+          <t>Công ty Cổ phần Tập đoàn TNT</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="n">
-        <v>1356</v>
+        <v>1758</v>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>TOP</t>
+          <t>TNW</t>
         </is>
       </c>
       <c r="C1538" t="n">
@@ -35807,17 +35807,17 @@
       </c>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Phân phối Top One</t>
+          <t>CTCP Nước sạch Thái Nguyên</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="n">
-        <v>2578</v>
+        <v>1356</v>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>TOS</t>
+          <t>TOP</t>
         </is>
       </c>
       <c r="C1539" t="n">
@@ -35830,17 +35830,17 @@
       </c>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Dịch vụ biển Tân Cảng</t>
+          <t>Công ty Cổ phần Phân phối Top One</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="n">
-        <v>1790</v>
+        <v>2578</v>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>TOS</t>
         </is>
       </c>
       <c r="C1540" t="n">
@@ -35848,22 +35848,22 @@
       </c>
       <c r="D1540" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Transimex Logistics</t>
+          <t>Công ty Cổ phần Dịch vụ biển Tân Cảng</t>
         </is>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="n">
-        <v>1921</v>
+        <v>1790</v>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>TOW</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="C1541" t="n">
@@ -35871,22 +35871,22 @@
       </c>
       <c r="D1541" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Cấp nước Trà Nóc – Ô Môn</t>
+          <t>Công ty Cổ phần Transimex Logistics</t>
         </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="n">
-        <v>427</v>
+        <v>1921</v>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>TPB</t>
+          <t>TOW</t>
         </is>
       </c>
       <c r="C1542" t="n">
@@ -35894,22 +35894,22 @@
       </c>
       <c r="D1542" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>Ngân hàng Thương mại Cổ phần Tiên Phong</t>
+          <t>Công ty Cổ phần Cấp nước Trà Nóc – Ô Môn</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="n">
-        <v>262</v>
+        <v>427</v>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>TPC</t>
+          <t>TPB</t>
         </is>
       </c>
       <c r="C1543" t="n">
@@ -35922,17 +35922,17 @@
       </c>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Nhựa Tân Đại Hưng</t>
+          <t>Ngân hàng Thương mại Cổ phần Tiên Phong</t>
         </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="n">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>TPH</t>
+          <t>TPC</t>
         </is>
       </c>
       <c r="C1544" t="n">
@@ -35940,22 +35940,22 @@
       </c>
       <c r="D1544" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần In Sách giáo khoa tại Tp.Hà Nội</t>
+          <t>Công ty Cổ phần Nhựa Tân Đại Hưng</t>
         </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="n">
-        <v>360</v>
+        <v>165</v>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>TPP</t>
+          <t>TPH</t>
         </is>
       </c>
       <c r="C1545" t="n">
@@ -35968,17 +35968,17 @@
       </c>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tân Phú Việt Nam</t>
+          <t>Công ty Cổ phần In Sách giáo khoa tại Tp.Hà Nội</t>
         </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="n">
-        <v>1408</v>
+        <v>360</v>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>TPS</t>
+          <t>TPP</t>
         </is>
       </c>
       <c r="C1546" t="n">
@@ -35986,22 +35986,22 @@
       </c>
       <c r="D1546" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Bến bãi Vận tải Sài Gòn</t>
+          <t>Công ty Cổ phần Tân Phú Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="n">
-        <v>1320</v>
+        <v>1408</v>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>TQN</t>
+          <t>TPS</t>
         </is>
       </c>
       <c r="C1547" t="n">
@@ -36014,17 +36014,17 @@
       </c>
       <c r="E1547" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Thông Quảng Ninh </t>
+          <t>Công ty Cổ phần Bến bãi Vận tải Sài Gòn</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="n">
-        <v>2034</v>
+        <v>1320</v>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>TQW</t>
+          <t>TQN</t>
         </is>
       </c>
       <c r="C1548" t="n">
@@ -36037,17 +36037,17 @@
       </c>
       <c r="E1548" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Cấp thoát nước Tuyên Quang </t>
+          <t xml:space="preserve">Công ty Cổ phần Thông Quảng Ninh </t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="n">
-        <v>2178</v>
+        <v>2034</v>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>TR1</t>
+          <t>TQW</t>
         </is>
       </c>
       <c r="C1549" t="n">
@@ -36060,17 +36060,17 @@
       </c>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vận tải 1 Traco</t>
+          <t xml:space="preserve">Công ty Cổ phần Cấp thoát nước Tuyên Quang </t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="n">
-        <v>428</v>
+        <v>2178</v>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>TRA</t>
+          <t>TR1</t>
         </is>
       </c>
       <c r="C1550" t="n">
@@ -36078,22 +36078,22 @@
       </c>
       <c r="D1550" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Traphaco</t>
+          <t>Công ty Cổ phần Vận tải 1 Traco</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="n">
-        <v>228</v>
+        <v>428</v>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>TRC</t>
+          <t>TRA</t>
         </is>
       </c>
       <c r="C1551" t="n">
@@ -36106,17 +36106,17 @@
       </c>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Cao su Tây Ninh</t>
+          <t>Công ty Cổ phần Traphaco</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="n">
-        <v>1381</v>
+        <v>228</v>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TRC</t>
         </is>
       </c>
       <c r="C1552" t="n">
@@ -36124,22 +36124,22 @@
       </c>
       <c r="D1552" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vận tải và Dịch vụ Hàng hải</t>
+          <t>Công ty Cổ phần Cao su Tây Ninh</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="n">
-        <v>1702</v>
+        <v>1381</v>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>TRS</t>
         </is>
       </c>
       <c r="C1553" t="n">
@@ -36152,17 +36152,17 @@
       </c>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần RedstarCera</t>
+          <t>Công ty Cổ phần Vận tải và Dịch vụ Hàng hải</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="n">
-        <v>1917</v>
+        <v>1702</v>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>TS3</t>
+          <t>TRT</t>
         </is>
       </c>
       <c r="C1554" t="n">
@@ -36175,17 +36175,17 @@
       </c>
       <c r="E1554" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Trường Sơn 532 </t>
+          <t>Công ty Cổ phần RedstarCera</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="n">
-        <v>167</v>
+        <v>1917</v>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>TS4</t>
+          <t>TS3</t>
         </is>
       </c>
       <c r="C1555" t="n">
@@ -36198,17 +36198,17 @@
       </c>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Thủy sản số 4</t>
+          <t xml:space="preserve">Công ty Cổ phần Trường Sơn 532 </t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="n">
-        <v>999</v>
+        <v>167</v>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>TSB</t>
+          <t>TS4</t>
         </is>
       </c>
       <c r="C1556" t="n">
@@ -36216,22 +36216,22 @@
       </c>
       <c r="D1556" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Ắc quy Tia Sáng</t>
+          <t>Công ty Cổ phần Thủy sản số 4</t>
         </is>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="n">
-        <v>240</v>
+        <v>999</v>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>TSB</t>
         </is>
       </c>
       <c r="C1557" t="n">
@@ -36239,22 +36239,22 @@
       </c>
       <c r="D1557" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vật tư Kỹ thuật Nông nghiệp Cần Thơ</t>
+          <t>Công ty Cổ phần Ắc quy Tia Sáng</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="n">
-        <v>1700</v>
+        <v>240</v>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>TSD</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="C1558" t="n">
@@ -36262,22 +36262,22 @@
       </c>
       <c r="D1558" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Du lịch Trường Sơn COECCO</t>
+          <t>Công ty Cổ phần Vật tư Kỹ thuật Nông nghiệp Cần Thơ</t>
         </is>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="n">
-        <v>1691</v>
+        <v>1700</v>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>TSD</t>
         </is>
       </c>
       <c r="C1559" t="n">
@@ -36290,17 +36290,17 @@
       </c>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Thông tin Tín hiệu Đường sắt Sài Gòn</t>
+          <t>Công ty Cổ phần Du lịch Trường Sơn COECCO</t>
         </is>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="n">
-        <v>1721</v>
+        <v>1691</v>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>TSJ</t>
+          <t>TSG</t>
         </is>
       </c>
       <c r="C1560" t="n">
@@ -36313,17 +36313,17 @@
       </c>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>Công ty cổ phần Du lịch Dịch vụ Hà Nội</t>
+          <t>Công ty Cổ phần Thông tin Tín hiệu Đường sắt Sài Gòn</t>
         </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="n">
-        <v>278</v>
+        <v>1721</v>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>TSJ</t>
         </is>
       </c>
       <c r="C1561" t="n">
@@ -36336,17 +36336,17 @@
       </c>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Dịch vụ Kỹ thuật Viễn thông</t>
+          <t>Công ty cổ phần Du lịch Dịch vụ Hà Nội</t>
         </is>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="n">
-        <v>2365</v>
+        <v>278</v>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>TTA</t>
+          <t>TST</t>
         </is>
       </c>
       <c r="C1562" t="n">
@@ -36354,22 +36354,22 @@
       </c>
       <c r="D1562" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư Xây dựng và Phát triển Trường Thành</t>
+          <t>Công ty Cổ phần Dịch vụ Kỹ thuật Viễn thông</t>
         </is>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="n">
-        <v>1290</v>
+        <v>2365</v>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>TTB</t>
+          <t>TTA</t>
         </is>
       </c>
       <c r="C1563" t="n">
@@ -36382,17 +36382,17 @@
       </c>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tập đoàn Tiến Bộ</t>
+          <t>Công ty Cổ phần Đầu tư Xây dựng và Phát triển Trường Thành</t>
         </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="n">
-        <v>168</v>
+        <v>1290</v>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>TTC</t>
+          <t>TTB</t>
         </is>
       </c>
       <c r="C1564" t="n">
@@ -36400,22 +36400,22 @@
       </c>
       <c r="D1564" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Gạch men Thanh Thanh</t>
+          <t>Công ty Cổ phần Tập đoàn Tiến Bộ</t>
         </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="n">
-        <v>1678</v>
+        <v>168</v>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>TTC</t>
         </is>
       </c>
       <c r="C1565" t="n">
@@ -36423,22 +36423,22 @@
       </c>
       <c r="D1565" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Bệnh viện Tim Tâm Đức</t>
+          <t>Công ty Cổ phần Gạch men Thanh Thanh</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="n">
-        <v>2027</v>
+        <v>1678</v>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>TTE</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="C1566" t="n">
@@ -36446,22 +36446,22 @@
       </c>
       <c r="D1566" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1566" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Đầu tư Năng lượng Trường Thịnh </t>
+          <t>Công ty Cổ phần Bệnh viện Tim Tâm Đức</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="n">
-        <v>318</v>
+        <v>2027</v>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>TTF</t>
+          <t>TTE</t>
         </is>
       </c>
       <c r="C1567" t="n">
@@ -36474,17 +36474,17 @@
       </c>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tập đoàn Kỹ nghệ Gỗ Trường Thành</t>
+          <t xml:space="preserve">Công ty Cổ phần Đầu tư Năng lượng Trường Thịnh </t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="n">
-        <v>666</v>
+        <v>318</v>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>TTG</t>
+          <t>TTF</t>
         </is>
       </c>
       <c r="C1568" t="n">
@@ -36492,22 +36492,22 @@
       </c>
       <c r="D1568" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần May Thanh Trì</t>
+          <t>Công ty Cổ phần Tập đoàn Kỹ nghệ Gỗ Trường Thành</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="n">
-        <v>1550</v>
+        <v>666</v>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>TTH</t>
+          <t>TTG</t>
         </is>
       </c>
       <c r="C1569" t="n">
@@ -36515,22 +36515,22 @@
       </c>
       <c r="D1569" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Thương mại và Dịch vụ Tiến Thành</t>
+          <t>Công ty Cổ phần May Thanh Trì</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="n">
-        <v>1663</v>
+        <v>1550</v>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>TTL</t>
+          <t>TTH</t>
         </is>
       </c>
       <c r="C1570" t="n">
@@ -36543,17 +36543,17 @@
       </c>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>Tổng Công ty Thăng Long - CTCP</t>
+          <t>Công ty Cổ phần Thương mại và Dịch vụ Tiến Thành</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="n">
-        <v>1629</v>
+        <v>1663</v>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>TTN</t>
+          <t>TTL</t>
         </is>
       </c>
       <c r="C1571" t="n">
@@ -36561,22 +36561,22 @@
       </c>
       <c r="D1571" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Công nghệ và Truyền thông Việt Nam</t>
+          <t>Tổng Công ty Thăng Long - CTCP</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="n">
-        <v>169</v>
+        <v>1629</v>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>TTP</t>
+          <t>TTN</t>
         </is>
       </c>
       <c r="C1572" t="n">
@@ -36589,17 +36589,17 @@
       </c>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Bao bì Nhựa Tân Tiến</t>
+          <t>Công ty Cổ phần Công nghệ và Truyền thông Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="n">
-        <v>1406</v>
+        <v>169</v>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>TTS</t>
+          <t>TTP</t>
         </is>
       </c>
       <c r="C1573" t="n">
@@ -36612,17 +36612,17 @@
       </c>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Cán thép Thái Trung</t>
+          <t>Công ty Cổ phần Bao bì Nhựa Tân Tiến</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="n">
-        <v>1200</v>
+        <v>1406</v>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>TTT</t>
+          <t>TTS</t>
         </is>
       </c>
       <c r="C1574" t="n">
@@ -36630,22 +36630,22 @@
       </c>
       <c r="D1574" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>Công ty cổ phần Du lịch – Thương mại Tây Ninh</t>
+          <t>Công ty Cổ phần Cán thép Thái Trung</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="n">
-        <v>1124</v>
+        <v>1200</v>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>TTZ</t>
+          <t>TTT</t>
         </is>
       </c>
       <c r="C1575" t="n">
@@ -36658,17 +36658,17 @@
       </c>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư Xây dựng và Công nghệ Tiến Trung</t>
+          <t>Công ty cổ phần Du lịch – Thương mại Tây Ninh</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="n">
-        <v>1680</v>
+        <v>1124</v>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>TUG</t>
+          <t>TTZ</t>
         </is>
       </c>
       <c r="C1576" t="n">
@@ -36676,22 +36676,22 @@
       </c>
       <c r="D1576" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Lai dắt và Vận tải Cảng Hải Phòng</t>
+          <t>Công ty Cổ phần Đầu tư Xây dựng và Công nghệ Tiến Trung</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="n">
-        <v>909</v>
+        <v>1680</v>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>TV1</t>
+          <t>TUG</t>
         </is>
       </c>
       <c r="C1577" t="n">
@@ -36704,17 +36704,17 @@
       </c>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tư vấn Xây dựng Điện 1</t>
+          <t>Công ty Cổ phần Lai dắt và Vận tải Cảng Hải Phòng</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="n">
-        <v>565</v>
+        <v>909</v>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>TV2</t>
+          <t>TV1</t>
         </is>
       </c>
       <c r="C1578" t="n">
@@ -36722,22 +36722,22 @@
       </c>
       <c r="D1578" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tư vấn Xây dựng Điện 2</t>
+          <t>Công ty Cổ phần Tư vấn Xây dựng Điện 1</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="n">
-        <v>594</v>
+        <v>565</v>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>TV3</t>
+          <t>TV2</t>
         </is>
       </c>
       <c r="C1579" t="n">
@@ -36745,22 +36745,22 @@
       </c>
       <c r="D1579" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tư vấn Xây dựng Điện 3</t>
+          <t>Công ty Cổ phần Tư vấn Xây dựng Điện 2</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="n">
-        <v>345</v>
+        <v>594</v>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>TV4</t>
+          <t>TV3</t>
         </is>
       </c>
       <c r="C1580" t="n">
@@ -36773,17 +36773,17 @@
       </c>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tư vấn Xây dựng điện 4</t>
+          <t>Công ty Cổ phần Tư vấn Xây dựng Điện 3</t>
         </is>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="n">
-        <v>2343</v>
+        <v>345</v>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>TV6</t>
+          <t>TV4</t>
         </is>
       </c>
       <c r="C1581" t="n">
@@ -36791,22 +36791,22 @@
       </c>
       <c r="D1581" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Thương mại Đầu tư Xây lắp điện Thịnh Vượng</t>
+          <t>Công ty Cổ phần Tư vấn Xây dựng điện 4</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="n">
-        <v>1669</v>
+        <v>2343</v>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>TVA</t>
+          <t>TV6</t>
         </is>
       </c>
       <c r="C1582" t="n">
@@ -36819,17 +36819,17 @@
       </c>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Sứ Viglacera Thanh Trì</t>
+          <t>Công ty Cổ phần Thương mại Đầu tư Xây lắp điện Thịnh Vượng</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="n">
-        <v>1354</v>
+        <v>1669</v>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>TVB</t>
+          <t>TVA</t>
         </is>
       </c>
       <c r="C1583" t="n">
@@ -36837,22 +36837,22 @@
       </c>
       <c r="D1583" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Chứng khoán Trí Việt</t>
+          <t>Công ty Cổ phần Sứ Viglacera Thanh Trì</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="n">
-        <v>1259</v>
+        <v>1354</v>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>TVC</t>
+          <t>TVB</t>
         </is>
       </c>
       <c r="C1584" t="n">
@@ -36860,22 +36860,22 @@
       </c>
       <c r="D1584" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tập đoàn Quản lý Tài sản Trí Việt</t>
+          <t>Công ty Cổ phần Chứng khoán Trí Việt</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="n">
-        <v>987</v>
+        <v>1259</v>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>TVD</t>
+          <t>TVC</t>
         </is>
       </c>
       <c r="C1585" t="n">
@@ -36888,17 +36888,17 @@
       </c>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Than Vàng Danh - Vinacomin</t>
+          <t>Công ty Cổ phần Tập đoàn Quản lý Tài sản Trí Việt</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="n">
-        <v>667</v>
+        <v>987</v>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>TVG</t>
+          <t>TVD</t>
         </is>
       </c>
       <c r="C1586" t="n">
@@ -36906,22 +36906,22 @@
       </c>
       <c r="D1586" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tư vấn Đầu tư và Xây dựng Giao thông vận tải</t>
+          <t>Công ty Cổ phần Than Vàng Danh - Vinacomin</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="n">
-        <v>1994</v>
+        <v>667</v>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>TVH</t>
+          <t>TVG</t>
         </is>
       </c>
       <c r="C1587" t="n">
@@ -36934,17 +36934,17 @@
       </c>
       <c r="E1587" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Tư vấn Xây dựng Công trình Hàng hải </t>
+          <t>Công ty Cổ phần Tư vấn Đầu tư và Xây dựng Giao thông vận tải</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="n">
-        <v>1140</v>
+        <v>1994</v>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>TVM</t>
+          <t>TVH</t>
         </is>
       </c>
       <c r="C1588" t="n">
@@ -36957,17 +36957,17 @@
       </c>
       <c r="E1588" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Tư vấn Đầu tư Mỏ và Công nghiệp Vinacomin </t>
+          <t xml:space="preserve">Công ty Cổ phần Tư vấn Xây dựng Công trình Hàng hải </t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="n">
-        <v>1162</v>
+        <v>1140</v>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>TVN</t>
+          <t>TVM</t>
         </is>
       </c>
       <c r="C1589" t="n">
@@ -36980,17 +36980,17 @@
       </c>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>Tổng Công ty Thép Việt Nam - CTCP</t>
+          <t xml:space="preserve">Công ty Cổ phần Tư vấn Đầu tư Mỏ và Công nghiệp Vinacomin </t>
         </is>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="n">
-        <v>736</v>
+        <v>1162</v>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>TVP</t>
+          <t>TVN</t>
         </is>
       </c>
       <c r="C1590" t="n">
@@ -37003,17 +37003,17 @@
       </c>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Dược phẩm TV.Pharm</t>
+          <t>Tổng Công ty Thép Việt Nam - CTCP</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="n">
-        <v>430</v>
+        <v>736</v>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>TVS</t>
+          <t>TVP</t>
         </is>
       </c>
       <c r="C1591" t="n">
@@ -37021,22 +37021,22 @@
       </c>
       <c r="D1591" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Chứng khoán Thiên Việt</t>
+          <t>Công ty Cổ phần Dược phẩm TV.Pharm</t>
         </is>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="n">
-        <v>1184</v>
+        <v>430</v>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>TVT</t>
+          <t>TVS</t>
         </is>
       </c>
       <c r="C1592" t="n">
@@ -37049,17 +37049,17 @@
       </c>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>Tổng Công ty Việt Thắng - CTCP</t>
+          <t>Công ty Cổ phần Chứng khoán Thiên Việt</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="n">
-        <v>1779</v>
+        <v>1184</v>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>TVW</t>
+          <t>TVT</t>
         </is>
       </c>
       <c r="C1593" t="n">
@@ -37067,22 +37067,22 @@
       </c>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Cấp thoát nước Trà Vinh</t>
+          <t>Tổng Công ty Việt Thắng - CTCP</t>
         </is>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="n">
-        <v>1555</v>
+        <v>1779</v>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>TW3</t>
+          <t>TVW</t>
         </is>
       </c>
       <c r="C1594" t="n">
@@ -37095,17 +37095,17 @@
       </c>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Dược Trung ương 3</t>
+          <t>Công ty Cổ phần Cấp thoát nước Trà Vinh</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="n">
-        <v>170</v>
+        <v>1555</v>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>TXM</t>
+          <t>TW3</t>
         </is>
       </c>
       <c r="C1595" t="n">
@@ -37113,22 +37113,22 @@
       </c>
       <c r="D1595" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần VICEM Thạch cao Xi măng</t>
+          <t>Công ty Cổ phần Dược Trung ương 3</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>TYA</t>
+          <t>TXM</t>
         </is>
       </c>
       <c r="C1596" t="n">
@@ -37136,22 +37136,22 @@
       </c>
       <c r="D1596" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Dây và Cáp điện Taya Việt Nam</t>
+          <t>Công ty Cổ phần VICEM Thạch cao Xi măng</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="n">
-        <v>1547</v>
+        <v>171</v>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>UCT</t>
+          <t>TYA</t>
         </is>
       </c>
       <c r="C1597" t="n">
@@ -37159,22 +37159,22 @@
       </c>
       <c r="D1597" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1597" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Đô thị Cần Thơ </t>
+          <t>Công ty Cổ phần Dây và Cáp điện Taya Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="n">
-        <v>844</v>
+        <v>1547</v>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>UDC</t>
+          <t>UCT</t>
         </is>
       </c>
       <c r="C1598" t="n">
@@ -37182,22 +37182,22 @@
       </c>
       <c r="D1598" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây dựng và Phát triển Đô thị Tỉnh Bà Rịa – Vũng Tàu</t>
+          <t xml:space="preserve">Công ty Cổ phần Đô thị Cần Thơ </t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="n">
-        <v>621</v>
+        <v>844</v>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>UDJ</t>
+          <t>UDC</t>
         </is>
       </c>
       <c r="C1599" t="n">
@@ -37205,22 +37205,22 @@
       </c>
       <c r="D1599" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Phát triển Đô thị</t>
+          <t>Công ty Cổ phần Xây dựng và Phát triển Đô thị Tỉnh Bà Rịa – Vũng Tàu</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="n">
-        <v>2069</v>
+        <v>621</v>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>UDL</t>
+          <t>UDJ</t>
         </is>
       </c>
       <c r="C1600" t="n">
@@ -37233,17 +37233,17 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đô thị và Môi trường Đắk Lắk</t>
+          <t>Công ty Cổ phần Phát triển Đô thị</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="n">
-        <v>1123</v>
+        <v>2069</v>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>UEM</t>
+          <t>UDL</t>
         </is>
       </c>
       <c r="C1601" t="n">
@@ -37256,17 +37256,17 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Cơ điện Uông Bí - Vinacomin</t>
+          <t>Công ty Cổ phần Đô thị và Môi trường Đắk Lắk</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="n">
-        <v>247</v>
+        <v>1123</v>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>UIC</t>
+          <t>UEM</t>
         </is>
       </c>
       <c r="C1602" t="n">
@@ -37274,22 +37274,22 @@
       </c>
       <c r="D1602" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư phát triển nhà và Đô thị IDICO</t>
+          <t>Công ty Cổ phần Cơ điện Uông Bí - Vinacomin</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="n">
-        <v>1808</v>
+        <v>247</v>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>UIC</t>
         </is>
       </c>
       <c r="C1603" t="n">
@@ -37297,22 +37297,22 @@
       </c>
       <c r="D1603" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty cổ phần Công trình đô thị Nam Định </t>
+          <t>Công ty Cổ phần Đầu tư phát triển nhà và Đô thị IDICO</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="n">
-        <v>172</v>
+        <v>1808</v>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="C1604" t="n">
@@ -37320,22 +37320,22 @@
       </c>
       <c r="D1604" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư và Phát triển Sao Mai Việt</t>
+          <t xml:space="preserve">Công ty cổ phần Công trình đô thị Nam Định </t>
         </is>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="n">
-        <v>947</v>
+        <v>172</v>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>UPC</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="C1605" t="n">
@@ -37343,22 +37343,22 @@
       </c>
       <c r="D1605" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Phát triển Công viên cây xanh và Đô thị Vũng Tàu</t>
+          <t>Công ty Cổ phần Đầu tư và Phát triển Sao Mai Việt</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="n">
-        <v>1445</v>
+        <v>947</v>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>UPH</t>
+          <t>UPC</t>
         </is>
       </c>
       <c r="C1606" t="n">
@@ -37371,17 +37371,17 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Dược phẩm TW25</t>
+          <t>Công ty Cổ phần Phát triển Công viên cây xanh và Đô thị Vũng Tàu</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="n">
-        <v>1674</v>
+        <v>1445</v>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>USC</t>
+          <t>UPH</t>
         </is>
       </c>
       <c r="C1607" t="n">
@@ -37394,17 +37394,17 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Khảo sát và Xây dựng - USCO</t>
+          <t>Công ty Cổ phần Dược phẩm TW25</t>
         </is>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="n">
-        <v>2015</v>
+        <v>1674</v>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>USC</t>
         </is>
       </c>
       <c r="C1608" t="n">
@@ -37417,17 +37417,17 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Công trình Đô thị Sóc Trăng</t>
+          <t>Công ty Cổ phần Khảo sát và Xây dựng - USCO</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="n">
-        <v>451</v>
+        <v>2015</v>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C1609" t="n">
@@ -37440,17 +37440,17 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây dựng số 11</t>
+          <t>Công ty Cổ phần Công trình Đô thị Sóc Trăng</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="n">
-        <v>592</v>
+        <v>451</v>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>V12</t>
+          <t>V11</t>
         </is>
       </c>
       <c r="C1610" t="n">
@@ -37458,22 +37458,22 @@
       </c>
       <c r="D1610" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây dựng số 12</t>
+          <t>Công ty Cổ phần Xây dựng số 11</t>
         </is>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="n">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>V15</t>
+          <t>V12</t>
         </is>
       </c>
       <c r="C1611" t="n">
@@ -37481,22 +37481,22 @@
       </c>
       <c r="D1611" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây dựng số 15</t>
+          <t>Công ty Cổ phần Xây dựng số 12</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="n">
-        <v>770</v>
+        <v>623</v>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>V21</t>
+          <t>V15</t>
         </is>
       </c>
       <c r="C1612" t="n">
@@ -37504,22 +37504,22 @@
       </c>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Vinaconex 21 </t>
+          <t>Công ty Cổ phần Xây dựng số 15</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="n">
-        <v>431</v>
+        <v>770</v>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>VAB</t>
+          <t>V21</t>
         </is>
       </c>
       <c r="C1613" t="n">
@@ -37527,22 +37527,22 @@
       </c>
       <c r="D1613" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>Ngân hàng Thương mại Cổ phần Việt Á</t>
+          <t xml:space="preserve">Công ty Cổ phần Vinaconex 21 </t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="n">
-        <v>1324</v>
+        <v>431</v>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>VAF</t>
+          <t>VAB</t>
         </is>
       </c>
       <c r="C1614" t="n">
@@ -37550,22 +37550,22 @@
       </c>
       <c r="D1614" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Phân Lân Nung Chảy Văn Điển</t>
+          <t>Ngân hàng Thương mại Cổ phần Việt Á</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="n">
-        <v>958</v>
+        <v>1324</v>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>VAT</t>
+          <t>VAF</t>
         </is>
       </c>
       <c r="C1615" t="n">
@@ -37573,22 +37573,22 @@
       </c>
       <c r="D1615" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần VT Vạn Xuân</t>
+          <t>Công ty Cổ phần Phân Lân Nung Chảy Văn Điển</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="n">
-        <v>1677</v>
+        <v>958</v>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>VAV</t>
+          <t>VAT</t>
         </is>
       </c>
       <c r="C1616" t="n">
@@ -37601,17 +37601,17 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần VIWACO</t>
+          <t>Công ty Cổ phần VT Vạn Xuân</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="n">
-        <v>2972</v>
+        <v>1677</v>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>VBA121033</t>
+          <t>VAV</t>
         </is>
       </c>
       <c r="C1617" t="n">
@@ -37619,22 +37619,22 @@
       </c>
       <c r="D1617" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>Trái phiếu phát hành ra công chúng năm 2021 của Agribank</t>
+          <t>Công ty Cổ phần VIWACO</t>
         </is>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" t="n">
-        <v>435</v>
+        <v>2972</v>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>VBB</t>
+          <t>VBA121033</t>
         </is>
       </c>
       <c r="C1618" t="n">
@@ -37642,22 +37642,22 @@
       </c>
       <c r="D1618" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>Ngân hàng Thương mại Cổ phần Việt Nam Thương Tín</t>
+          <t>Trái phiếu phát hành ra công chúng năm 2021 của Agribank</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="n">
-        <v>698</v>
+        <v>435</v>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>VBC</t>
+          <t>VBB</t>
         </is>
       </c>
       <c r="C1619" t="n">
@@ -37665,22 +37665,22 @@
       </c>
       <c r="D1619" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Nhựa – Bao bì Vinh</t>
+          <t>Ngân hàng Thương mại Cổ phần Việt Nam Thương Tín</t>
         </is>
       </c>
     </row>
     <row r="1620">
       <c r="A1620" t="n">
-        <v>1638</v>
+        <v>698</v>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>VBC</t>
         </is>
       </c>
       <c r="C1620" t="n">
@@ -37688,22 +37688,22 @@
       </c>
       <c r="D1620" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Địa chất Việt Bắc - TKV</t>
+          <t>Công ty Cổ phần Nhựa – Bao bì Vinh</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="n">
-        <v>173</v>
+        <v>1638</v>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>VBH</t>
+          <t>VBG</t>
         </is>
       </c>
       <c r="C1621" t="n">
@@ -37716,17 +37716,17 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Điện tử Bình Hòa</t>
+          <t>Công ty Cổ phần Địa chất Việt Bắc - TKV</t>
         </is>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="n">
-        <v>482</v>
+        <v>173</v>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>VC1</t>
+          <t>VBH</t>
         </is>
       </c>
       <c r="C1622" t="n">
@@ -37734,22 +37734,22 @@
       </c>
       <c r="D1622" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây dựng số 1</t>
+          <t>Công ty Cổ phần Điện tử Bình Hòa</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="n">
-        <v>174</v>
+        <v>482</v>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>VC2</t>
+          <t>VC1</t>
         </is>
       </c>
       <c r="C1623" t="n">
@@ -37762,17 +37762,17 @@
       </c>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>Công ty cổ phần Đầu tư và Xây dựng Vina2</t>
+          <t>Công ty Cổ phần Xây dựng số 1</t>
         </is>
       </c>
     </row>
     <row r="1624">
       <c r="A1624" t="n">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>VC3</t>
+          <t>VC2</t>
         </is>
       </c>
       <c r="C1624" t="n">
@@ -37785,17 +37785,17 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Tập đoàn Nam Mê Kông </t>
+          <t>Công ty cổ phần Đầu tư và Xây dựng Vina2</t>
         </is>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="n">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>VC5</t>
+          <t>VC3</t>
         </is>
       </c>
       <c r="C1625" t="n">
@@ -37803,22 +37803,22 @@
       </c>
       <c r="D1625" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây dựng số 5</t>
+          <t xml:space="preserve">Công ty Cổ phần Tập đoàn Nam Mê Kông </t>
         </is>
       </c>
     </row>
     <row r="1626">
       <c r="A1626" t="n">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>VC6</t>
+          <t>VC5</t>
         </is>
       </c>
       <c r="C1626" t="n">
@@ -37826,22 +37826,22 @@
       </c>
       <c r="D1626" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây dựng và Đầu tư Visicons</t>
+          <t>Công ty Cổ phần Xây dựng số 5</t>
         </is>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" t="n">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>VC7</t>
+          <t>VC6</t>
         </is>
       </c>
       <c r="C1627" t="n">
@@ -37854,17 +37854,17 @@
       </c>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tập đoàn BGI</t>
+          <t>Công ty Cổ phần Xây dựng và Đầu tư Visicons</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="n">
-        <v>545</v>
+        <v>295</v>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>VC9</t>
+          <t>VC7</t>
         </is>
       </c>
       <c r="C1628" t="n">
@@ -37877,17 +37877,17 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây dựng số 9 - VC9</t>
+          <t>Công ty Cổ phần Tập đoàn BGI</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="n">
-        <v>965</v>
+        <v>545</v>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>VCA</t>
+          <t>VC9</t>
         </is>
       </c>
       <c r="C1629" t="n">
@@ -37895,22 +37895,22 @@
       </c>
       <c r="D1629" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Thép VICASA-VNSTEEL</t>
+          <t>Công ty Cổ phần Xây dựng số 9 - VC9</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="n">
-        <v>215</v>
+        <v>965</v>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>VCB</t>
+          <t>VCA</t>
         </is>
       </c>
       <c r="C1630" t="n">
@@ -37923,17 +37923,17 @@
       </c>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>Ngân hàng Thương mại Cổ phần Ngoại thương Việt Nam</t>
+          <t>Công ty Cổ phần Thép VICASA-VNSTEEL</t>
         </is>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="n">
-        <v>463</v>
+        <v>215</v>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>VCC</t>
+          <t>VCB</t>
         </is>
       </c>
       <c r="C1631" t="n">
@@ -37941,22 +37941,22 @@
       </c>
       <c r="D1631" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vinaconex 25</t>
+          <t>Ngân hàng Thương mại Cổ phần Ngoại thương Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="n">
-        <v>1516</v>
+        <v>463</v>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>VCE</t>
+          <t>VCC</t>
         </is>
       </c>
       <c r="C1632" t="n">
@@ -37964,22 +37964,22 @@
       </c>
       <c r="D1632" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây lắp Môi trường</t>
+          <t>Công ty Cổ phần Vinaconex 25</t>
         </is>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" t="n">
-        <v>1009</v>
+        <v>1516</v>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>VCF</t>
+          <t>VCE</t>
         </is>
       </c>
       <c r="C1633" t="n">
@@ -37987,22 +37987,22 @@
       </c>
       <c r="D1633" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vinacafe Biên Hòa</t>
+          <t>Công ty Cổ phần Xây lắp Môi trường</t>
         </is>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="n">
-        <v>352</v>
+        <v>1009</v>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>VCG</t>
+          <t>VCF</t>
         </is>
       </c>
       <c r="C1634" t="n">
@@ -38015,17 +38015,17 @@
       </c>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>Tổng Công ty Cổ phần Xuất nhập khẩu và Xây dựng Việt Nam</t>
+          <t>Công ty Cổ phần Vinacafe Biên Hòa</t>
         </is>
       </c>
     </row>
     <row r="1635">
       <c r="A1635" t="n">
-        <v>1794</v>
+        <v>352</v>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>VCI</t>
+          <t>VCG</t>
         </is>
       </c>
       <c r="C1635" t="n">
@@ -38038,17 +38038,17 @@
       </c>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Chứng khoán Bản Việt</t>
+          <t>Tổng Công ty Cổ phần Xuất nhập khẩu và Xây dựng Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1636">
       <c r="A1636" t="n">
-        <v>798</v>
+        <v>1794</v>
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>VCM</t>
+          <t>VCI</t>
         </is>
       </c>
       <c r="C1636" t="n">
@@ -38056,22 +38056,22 @@
       </c>
       <c r="D1636" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Nhân lực và Thương mại Vinaconex</t>
+          <t>Công ty Cổ phần Chứng khoán Bản Việt</t>
         </is>
       </c>
     </row>
     <row r="1637">
       <c r="A1637" t="n">
-        <v>880</v>
+        <v>798</v>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>VCP</t>
+          <t>VCM</t>
         </is>
       </c>
       <c r="C1637" t="n">
@@ -38079,22 +38079,22 @@
       </c>
       <c r="D1637" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư Xây dựng và Năng lượng VCP</t>
+          <t>Công ty Cổ phần Nhân lực và Thương mại Vinaconex</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="n">
-        <v>796</v>
+        <v>880</v>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>VCR</t>
+          <t>VCP</t>
         </is>
       </c>
       <c r="C1638" t="n">
@@ -38107,17 +38107,17 @@
       </c>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư và Phát triển Du lịch Vinaconex</t>
+          <t>Công ty Cổ phần Đầu tư Xây dựng và Năng lượng VCP</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="n">
-        <v>280</v>
+        <v>796</v>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>VCS</t>
+          <t>VCR</t>
         </is>
       </c>
       <c r="C1639" t="n">
@@ -38125,22 +38125,22 @@
       </c>
       <c r="D1639" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1639" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần VICOSTONE </t>
+          <t>Công ty Cổ phần Đầu tư và Phát triển Du lịch Vinaconex</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="n">
-        <v>848</v>
+        <v>280</v>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>VCT</t>
+          <t>VCS</t>
         </is>
       </c>
       <c r="C1640" t="n">
@@ -38148,22 +38148,22 @@
       </c>
       <c r="D1640" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tư vấn Xây dựng Vinaconex</t>
+          <t xml:space="preserve">Công ty Cổ phần VICOSTONE </t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="n">
-        <v>1191</v>
+        <v>848</v>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>VCW</t>
+          <t>VCT</t>
         </is>
       </c>
       <c r="C1641" t="n">
@@ -38176,17 +38176,17 @@
       </c>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Nước sạch Vinaconex</t>
+          <t>Công ty Cổ phần Tư vấn Xây dựng Vinaconex</t>
         </is>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="n">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>VCX</t>
+          <t>VCW</t>
         </is>
       </c>
       <c r="C1642" t="n">
@@ -38199,17 +38199,17 @@
       </c>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>Công ty cổ phần Xi măng Yên Bình</t>
+          <t>Công ty Cổ phần Nước sạch Vinaconex</t>
         </is>
       </c>
     </row>
     <row r="1643">
       <c r="A1643" t="n">
-        <v>2012</v>
+        <v>1189</v>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>VDB</t>
+          <t>VCX</t>
         </is>
       </c>
       <c r="C1643" t="n">
@@ -38222,17 +38222,17 @@
       </c>
       <c r="E1643" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Vận tải và Chế biến Than Đông Bắc </t>
+          <t>Công ty cổ phần Xi măng Yên Bình</t>
         </is>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="n">
-        <v>244</v>
+        <v>2012</v>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>VDL</t>
+          <t>VDB</t>
         </is>
       </c>
       <c r="C1644" t="n">
@@ -38240,22 +38240,22 @@
       </c>
       <c r="D1644" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Thực phẩm Lâm Đồng</t>
+          <t xml:space="preserve">Công ty Cổ phần Vận tải và Chế biến Than Đông Bắc </t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="n">
-        <v>681</v>
+        <v>244</v>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>VDN</t>
+          <t>VDL</t>
         </is>
       </c>
       <c r="C1645" t="n">
@@ -38263,22 +38263,22 @@
       </c>
       <c r="D1645" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vinatex Đà Nẵng</t>
+          <t>Công ty Cổ phần Thực phẩm Lâm Đồng</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="n">
-        <v>1193</v>
+        <v>681</v>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>VDP</t>
+          <t>VDN</t>
         </is>
       </c>
       <c r="C1646" t="n">
@@ -38286,22 +38286,22 @@
       </c>
       <c r="D1646" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1646" t="inlineStr">
         <is>
-          <t xml:space="preserve">CTCP Dược phẩm Trung ương VIDIPHA </t>
+          <t>Công ty Cổ phần Vinatex Đà Nẵng</t>
         </is>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="n">
-        <v>433</v>
+        <v>1193</v>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>VDS</t>
+          <t>VDP</t>
         </is>
       </c>
       <c r="C1647" t="n">
@@ -38314,17 +38314,17 @@
       </c>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Chứng khoán Rồng Việt</t>
+          <t xml:space="preserve">CTCP Dược phẩm Trung ương VIDIPHA </t>
         </is>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="n">
-        <v>959</v>
+        <v>433</v>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>VDT</t>
+          <t>VDS</t>
         </is>
       </c>
       <c r="C1648" t="n">
@@ -38332,22 +38332,22 @@
       </c>
       <c r="D1648" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Lưới Thép Bình Tây</t>
+          <t>Công ty Cổ phần Chứng khoán Rồng Việt</t>
         </is>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="n">
-        <v>351</v>
+        <v>959</v>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>VE1</t>
+          <t>VDT</t>
         </is>
       </c>
       <c r="C1649" t="n">
@@ -38355,22 +38355,22 @@
       </c>
       <c r="D1649" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1649" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây dựng điện VNECO1</t>
+          <t>Công ty Cổ phần Lưới Thép Bình Tây</t>
         </is>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="n">
-        <v>853</v>
+        <v>351</v>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>VE2</t>
+          <t>VE1</t>
         </is>
       </c>
       <c r="C1650" t="n">
@@ -38383,17 +38383,17 @@
       </c>
       <c r="E1650" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây dựng Điện VNECO2</t>
+          <t>Công ty Cổ phần Xây dựng điện VNECO1</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="n">
-        <v>825</v>
+        <v>853</v>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>VE3</t>
+          <t>VE2</t>
         </is>
       </c>
       <c r="C1651" t="n">
@@ -38406,17 +38406,17 @@
       </c>
       <c r="E1651" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây dựng điện VNECO 3</t>
+          <t>Công ty Cổ phần Xây dựng Điện VNECO2</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="n">
-        <v>1115</v>
+        <v>825</v>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>VE4</t>
+          <t>VE3</t>
         </is>
       </c>
       <c r="C1652" t="n">
@@ -38429,17 +38429,17 @@
       </c>
       <c r="E1652" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây dựng điện Vneco4</t>
+          <t>Công ty Cổ phần Xây dựng điện VNECO 3</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="n">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>VE8</t>
+          <t>VE4</t>
         </is>
       </c>
       <c r="C1653" t="n">
@@ -38452,17 +38452,17 @@
       </c>
       <c r="E1653" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây dựng Điện VNECO 8</t>
+          <t>Công ty Cổ phần Xây dựng điện Vneco4</t>
         </is>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="n">
-        <v>310</v>
+        <v>1109</v>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>VE9</t>
+          <t>VE8</t>
         </is>
       </c>
       <c r="C1654" t="n">
@@ -38470,22 +38470,22 @@
       </c>
       <c r="D1654" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1654" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư và xây dựng VNECO 9</t>
+          <t>Công ty Cổ phần Xây dựng Điện VNECO 8</t>
         </is>
       </c>
     </row>
     <row r="1655">
       <c r="A1655" t="n">
-        <v>1878</v>
+        <v>310</v>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>VEA</t>
+          <t>VE9</t>
         </is>
       </c>
       <c r="C1655" t="n">
@@ -38498,17 +38498,17 @@
       </c>
       <c r="E1655" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tổng công ty Máy động lực và Máy nông nghiệp Việt Nam - CTCP </t>
+          <t>Công ty Cổ phần Đầu tư và xây dựng VNECO 9</t>
         </is>
       </c>
     </row>
     <row r="1656">
       <c r="A1656" t="n">
-        <v>1785</v>
+        <v>1878</v>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>VEC</t>
+          <t>VEA</t>
         </is>
       </c>
       <c r="C1656" t="n">
@@ -38521,17 +38521,17 @@
       </c>
       <c r="E1656" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tổng Công ty cổ phần Điện tử và Tin học Việt Nam </t>
+          <t xml:space="preserve">Tổng công ty Máy động lực và Máy nông nghiệp Việt Nam - CTCP </t>
         </is>
       </c>
     </row>
     <row r="1657">
       <c r="A1657" t="n">
-        <v>1420</v>
+        <v>1785</v>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>VEF</t>
+          <t>VEC</t>
         </is>
       </c>
       <c r="C1657" t="n">
@@ -38544,17 +38544,17 @@
       </c>
       <c r="E1657" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Trung tâm Hội chợ Triển lãm Việt Nam</t>
+          <t xml:space="preserve">Tổng Công ty cổ phần Điện tử và Tin học Việt Nam </t>
         </is>
       </c>
     </row>
     <row r="1658">
       <c r="A1658" t="n">
-        <v>761</v>
+        <v>1420</v>
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t>VES</t>
+          <t>VEF</t>
         </is>
       </c>
       <c r="C1658" t="n">
@@ -38567,17 +38567,17 @@
       </c>
       <c r="E1658" t="inlineStr">
         <is>
-          <t>Công ty cổ phần Đầu tư và Xây dựng điện Mêca Vneco</t>
+          <t>Công ty Cổ phần Trung tâm Hội chợ Triển lãm Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1659">
       <c r="A1659" t="n">
-        <v>1757</v>
+        <v>761</v>
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>VES</t>
         </is>
       </c>
       <c r="C1659" t="n">
@@ -38590,17 +38590,17 @@
       </c>
       <c r="E1659" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Thuốc Thú y Trung ương NAVETCO </t>
+          <t>Công ty cổ phần Đầu tư và Xây dựng điện Mêca Vneco</t>
         </is>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="n">
-        <v>176</v>
+        <v>1757</v>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>VFC</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="C1660" t="n">
@@ -38613,17 +38613,17 @@
       </c>
       <c r="E1660" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vinafco</t>
+          <t xml:space="preserve">Công ty Cổ phần Thuốc Thú y Trung ương NAVETCO </t>
         </is>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="n">
-        <v>627</v>
+        <v>176</v>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>VFG</t>
+          <t>VFC</t>
         </is>
       </c>
       <c r="C1661" t="n">
@@ -38631,22 +38631,22 @@
       </c>
       <c r="D1661" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1661" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Khử trùng Việt Nam</t>
+          <t>Công ty Cổ phần Vinafco</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="n">
-        <v>177</v>
+        <v>627</v>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>VFR</t>
+          <t>VFG</t>
         </is>
       </c>
       <c r="C1662" t="n">
@@ -38654,22 +38654,22 @@
       </c>
       <c r="D1662" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1662" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vận tải và Thuê tàu</t>
+          <t>Công ty Cổ phần Khử trùng Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="n">
-        <v>2293</v>
+        <v>177</v>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>VFS</t>
+          <t>VFR</t>
         </is>
       </c>
       <c r="C1663" t="n">
@@ -38682,17 +38682,17 @@
       </c>
       <c r="E1663" t="inlineStr">
         <is>
-          <t>Công ty cổ phần Chứng khoán Nhất Việt</t>
+          <t>Công ty Cổ phần Vận tải và Thuê tàu</t>
         </is>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="n">
-        <v>1395</v>
+        <v>2293</v>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>VGC</t>
+          <t>VFS</t>
         </is>
       </c>
       <c r="C1664" t="n">
@@ -38700,22 +38700,22 @@
       </c>
       <c r="D1664" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1664" t="inlineStr">
         <is>
-          <t>Tổng Công ty Viglacera - CTCP</t>
+          <t>Công ty cổ phần Chứng khoán Nhất Việt</t>
         </is>
       </c>
     </row>
     <row r="1665">
       <c r="A1665" t="n">
-        <v>1428</v>
+        <v>1395</v>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>VGC</t>
         </is>
       </c>
       <c r="C1665" t="n">
@@ -38723,22 +38723,22 @@
       </c>
       <c r="D1665" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>Tổng Công ty Cổ phần May Việt Tiến</t>
+          <t>Tổng Công ty Viglacera - CTCP</t>
         </is>
       </c>
     </row>
     <row r="1666">
       <c r="A1666" t="n">
-        <v>2014</v>
+        <v>1428</v>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>VGI</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C1666" t="n">
@@ -38751,17 +38751,17 @@
       </c>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>Tổng Công ty Cổ phần Đầu tư Quốc tế Viettel</t>
+          <t>Tổng Công ty Cổ phần May Việt Tiến</t>
         </is>
       </c>
     </row>
     <row r="1667">
       <c r="A1667" t="n">
-        <v>1484</v>
+        <v>2014</v>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>VGL</t>
+          <t>VGI</t>
         </is>
       </c>
       <c r="C1667" t="n">
@@ -38774,17 +38774,17 @@
       </c>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Mạ kẽm Công nghiệp Vingal - Vnsteel</t>
+          <t>Tổng Công ty Cổ phần Đầu tư Quốc tế Viettel</t>
         </is>
       </c>
     </row>
     <row r="1668">
       <c r="A1668" t="n">
-        <v>178</v>
+        <v>1484</v>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>VGP</t>
+          <t>VGL</t>
         </is>
       </c>
       <c r="C1668" t="n">
@@ -38792,22 +38792,22 @@
       </c>
       <c r="D1668" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1668" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Cảng Rau Quả</t>
+          <t>Công ty Cổ phần Mạ kẽm Công nghiệp Vingal - Vnsteel</t>
         </is>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="n">
-        <v>1890</v>
+        <v>178</v>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>VGR</t>
+          <t>VGP</t>
         </is>
       </c>
       <c r="C1669" t="n">
@@ -38815,22 +38815,22 @@
       </c>
       <c r="D1669" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1669" t="inlineStr">
         <is>
-          <t>Công ty cổ phần Cảng xanh VIP</t>
+          <t>Công ty Cổ phần Cảng Rau Quả</t>
         </is>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="n">
-        <v>440</v>
+        <v>1890</v>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>VGS</t>
+          <t>VGR</t>
         </is>
       </c>
       <c r="C1670" t="n">
@@ -38838,22 +38838,22 @@
       </c>
       <c r="D1670" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1670" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Ống thép Việt Đức VG PIPE</t>
+          <t>Công ty cổ phần Cảng xanh VIP</t>
         </is>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" t="n">
-        <v>1298</v>
+        <v>440</v>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>VGT</t>
+          <t>VGS</t>
         </is>
       </c>
       <c r="C1671" t="n">
@@ -38861,22 +38861,22 @@
       </c>
       <c r="D1671" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1671" t="inlineStr">
         <is>
-          <t>Tập đoàn Dệt May Việt Nam</t>
+          <t>Công ty Cổ phần Ống thép Việt Đức VG PIPE</t>
         </is>
       </c>
     </row>
     <row r="1672">
       <c r="A1672" t="n">
-        <v>1768</v>
+        <v>1298</v>
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>VGV</t>
+          <t>VGT</t>
         </is>
       </c>
       <c r="C1672" t="n">
@@ -38889,17 +38889,17 @@
       </c>
       <c r="E1672" t="inlineStr">
         <is>
-          <t>Tổng công ty tư vấn xây dựng Việt Nam – CTCP</t>
+          <t>Tập đoàn Dệt May Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1673">
       <c r="A1673" t="n">
-        <v>290</v>
+        <v>1768</v>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>VHC</t>
+          <t>VGV</t>
         </is>
       </c>
       <c r="C1673" t="n">
@@ -38907,22 +38907,22 @@
       </c>
       <c r="D1673" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1673" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vĩnh Hoàn</t>
+          <t>Tổng công ty tư vấn xây dựng Việt Nam – CTCP</t>
         </is>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="n">
-        <v>1770</v>
+        <v>290</v>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>VHD</t>
+          <t>VHC</t>
         </is>
       </c>
       <c r="C1674" t="n">
@@ -38930,22 +38930,22 @@
       </c>
       <c r="D1674" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1674" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư Phát triển Nhà và Đô thị VINAHUD</t>
+          <t>Công ty Cổ phần Vĩnh Hoàn</t>
         </is>
       </c>
     </row>
     <row r="1675">
       <c r="A1675" t="n">
-        <v>2024</v>
+        <v>1770</v>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>VHE</t>
+          <t>VHD</t>
         </is>
       </c>
       <c r="C1675" t="n">
@@ -38953,22 +38953,22 @@
       </c>
       <c r="D1675" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1675" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Dược liệu và Thực phẩm Việt Nam </t>
+          <t>Công ty Cổ phần Đầu tư Phát triển Nhà và Đô thị VINAHUD</t>
         </is>
       </c>
     </row>
     <row r="1676">
       <c r="A1676" t="n">
-        <v>671</v>
+        <v>2024</v>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>VHF</t>
+          <t>VHE</t>
         </is>
       </c>
       <c r="C1676" t="n">
@@ -38976,22 +38976,22 @@
       </c>
       <c r="D1676" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1676" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây dựng và Chế biến lương thực Vĩnh Hà</t>
+          <t xml:space="preserve">Công ty Cổ phần Dược liệu và Thực phẩm Việt Nam </t>
         </is>
       </c>
     </row>
     <row r="1677">
       <c r="A1677" t="n">
-        <v>309</v>
+        <v>671</v>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>VHG</t>
+          <t>VHF</t>
         </is>
       </c>
       <c r="C1677" t="n">
@@ -39004,17 +39004,17 @@
       </c>
       <c r="E1677" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư và Phát triển Việt Trung Nam</t>
+          <t>Công ty Cổ phần Xây dựng và Chế biến lương thực Vĩnh Hà</t>
         </is>
       </c>
     </row>
     <row r="1678">
       <c r="A1678" t="n">
-        <v>835</v>
+        <v>309</v>
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>VHH</t>
+          <t>VHG</t>
         </is>
       </c>
       <c r="C1678" t="n">
@@ -39027,17 +39027,17 @@
       </c>
       <c r="E1678" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Đầu tư Kinh doanh nhà Thành Đạt </t>
+          <t>Công ty Cổ phần Đầu tư và Phát triển Việt Trung Nam</t>
         </is>
       </c>
     </row>
     <row r="1679">
       <c r="A1679" t="n">
-        <v>452</v>
+        <v>835</v>
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t>VHL</t>
+          <t>VHH</t>
         </is>
       </c>
       <c r="C1679" t="n">
@@ -39045,22 +39045,22 @@
       </c>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1679" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Viglacera Hạ Long </t>
+          <t xml:space="preserve">Công ty Cổ phần Đầu tư Kinh doanh nhà Thành Đạt </t>
         </is>
       </c>
     </row>
     <row r="1680">
       <c r="A1680" t="n">
-        <v>1955</v>
+        <v>452</v>
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>VHM</t>
+          <t>VHL</t>
         </is>
       </c>
       <c r="C1680" t="n">
@@ -39068,22 +39068,22 @@
       </c>
       <c r="D1680" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1680" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty cổ phần Vinhomes </t>
+          <t xml:space="preserve">Công ty Cổ phần Viglacera Hạ Long </t>
         </is>
       </c>
     </row>
     <row r="1681">
       <c r="A1681" t="n">
-        <v>2973</v>
+        <v>1955</v>
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>VHM121024</t>
+          <t>VHM</t>
         </is>
       </c>
       <c r="C1681" t="n">
@@ -39091,22 +39091,22 @@
       </c>
       <c r="D1681" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1681" t="inlineStr">
         <is>
-          <t>Trái phiếu VHMB2124002 của Công ty Cổ phần Vinhomes</t>
+          <t xml:space="preserve">Công ty cổ phần Vinhomes </t>
         </is>
       </c>
     </row>
     <row r="1682">
       <c r="A1682" t="n">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>VHM121025</t>
+          <t>VHM121024</t>
         </is>
       </c>
       <c r="C1682" t="n">
@@ -39119,17 +39119,17 @@
       </c>
       <c r="E1682" t="inlineStr">
         <is>
-          <t>Trái phiếu VHMB2126003 của Công ty Cổ phần Vinhomes</t>
+          <t>Trái phiếu VHMB2124002 của Công ty Cổ phần Vinhomes</t>
         </is>
       </c>
     </row>
     <row r="1683">
       <c r="A1683" t="n">
-        <v>434</v>
+        <v>2974</v>
       </c>
       <c r="B1683" t="inlineStr">
         <is>
-          <t>VIB</t>
+          <t>VHM121025</t>
         </is>
       </c>
       <c r="C1683" t="n">
@@ -39137,22 +39137,22 @@
       </c>
       <c r="D1683" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1683" t="inlineStr">
         <is>
-          <t>Ngân hàng Thương mại Cổ phần Quốc tế Việt Nam</t>
+          <t>Trái phiếu VHMB2126003 của Công ty Cổ phần Vinhomes</t>
         </is>
       </c>
     </row>
     <row r="1684">
       <c r="A1684" t="n">
-        <v>229</v>
+        <v>434</v>
       </c>
       <c r="B1684" t="inlineStr">
         <is>
-          <t>VIC</t>
+          <t>VIB</t>
         </is>
       </c>
       <c r="C1684" t="n">
@@ -39165,17 +39165,17 @@
       </c>
       <c r="E1684" t="inlineStr">
         <is>
-          <t>Tập đoàn Vingroup - Công ty Cổ phần</t>
+          <t>Ngân hàng Thương mại Cổ phần Quốc tế Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1685">
       <c r="A1685" t="n">
-        <v>2982</v>
+        <v>229</v>
       </c>
       <c r="B1685" t="inlineStr">
         <is>
-          <t>VIC121003</t>
+          <t>VIC</t>
         </is>
       </c>
       <c r="C1685" t="n">
@@ -39183,22 +39183,22 @@
       </c>
       <c r="D1685" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1685" t="inlineStr">
         <is>
-          <t>Trái phiếu VICB2023001 của Tập đoàn Vingroup - Công ty Cổ phần</t>
+          <t>Tập đoàn Vingroup - Công ty Cổ phần</t>
         </is>
       </c>
     </row>
     <row r="1686">
       <c r="A1686" t="n">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B1686" t="inlineStr">
         <is>
-          <t>VIC121004</t>
+          <t>VIC121003</t>
         </is>
       </c>
       <c r="C1686" t="n">
@@ -39211,17 +39211,17 @@
       </c>
       <c r="E1686" t="inlineStr">
         <is>
-          <t>Trái phiếu VICB2124001 của Tập đoàn Vingroup - Công ty Cổ phần</t>
+          <t>Trái phiếu VICB2023001 của Tập đoàn Vingroup - Công ty Cổ phần</t>
         </is>
       </c>
     </row>
     <row r="1687">
       <c r="A1687" t="n">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B1687" t="inlineStr">
         <is>
-          <t>VIC121005</t>
+          <t>VIC121004</t>
         </is>
       </c>
       <c r="C1687" t="n">
@@ -39234,17 +39234,17 @@
       </c>
       <c r="E1687" t="inlineStr">
         <is>
-          <t>Trái phiếu VICB2124002 của Tập đoàn Vingroup - Công ty Cổ phần</t>
+          <t>Trái phiếu VICB2124001 của Tập đoàn Vingroup - Công ty Cổ phần</t>
         </is>
       </c>
     </row>
     <row r="1688">
       <c r="A1688" t="n">
-        <v>179</v>
+        <v>2984</v>
       </c>
       <c r="B1688" t="inlineStr">
         <is>
-          <t>VID</t>
+          <t>VIC121005</t>
         </is>
       </c>
       <c r="C1688" t="n">
@@ -39252,22 +39252,22 @@
       </c>
       <c r="D1688" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1688" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư phát triển thương mại Viễn Đông</t>
+          <t>Trái phiếu VICB2124002 của Tập đoàn Vingroup - Công ty Cổ phần</t>
         </is>
       </c>
     </row>
     <row r="1689">
       <c r="A1689" t="n">
-        <v>1030</v>
+        <v>179</v>
       </c>
       <c r="B1689" t="inlineStr">
         <is>
-          <t>VIE</t>
+          <t>VID</t>
         </is>
       </c>
       <c r="C1689" t="n">
@@ -39275,22 +39275,22 @@
       </c>
       <c r="D1689" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1689" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Công nghệ Viễn thông Viteco</t>
+          <t>Công ty Cổ phần Đầu tư phát triển thương mại Viễn Đông</t>
         </is>
       </c>
     </row>
     <row r="1690">
       <c r="A1690" t="n">
-        <v>1659</v>
+        <v>1030</v>
       </c>
       <c r="B1690" t="inlineStr">
         <is>
-          <t>VIF</t>
+          <t>VIE</t>
         </is>
       </c>
       <c r="C1690" t="n">
@@ -39298,22 +39298,22 @@
       </c>
       <c r="D1690" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1690" t="inlineStr">
         <is>
-          <t>Tổng Công ty Lâm nghiệp Việt Nam - CTCP</t>
+          <t>Công ty Cổ phần Công nghệ Viễn thông Viteco</t>
         </is>
       </c>
     </row>
     <row r="1691">
       <c r="A1691" t="n">
-        <v>611</v>
+        <v>1659</v>
       </c>
       <c r="B1691" t="inlineStr">
         <is>
-          <t>VIG</t>
+          <t>VIF</t>
         </is>
       </c>
       <c r="C1691" t="n">
@@ -39326,17 +39326,17 @@
       </c>
       <c r="E1691" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Chứng khoán Thương mại và Công nghiệp Việt Nam</t>
+          <t>Tổng Công ty Lâm nghiệp Việt Nam - CTCP</t>
         </is>
       </c>
     </row>
     <row r="1692">
       <c r="A1692" t="n">
-        <v>1655</v>
+        <v>611</v>
       </c>
       <c r="B1692" t="inlineStr">
         <is>
-          <t>VIH</t>
+          <t>VIG</t>
         </is>
       </c>
       <c r="C1692" t="n">
@@ -39344,22 +39344,22 @@
       </c>
       <c r="D1692" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1692" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Viglacera Hà Nội</t>
+          <t>Công ty Cổ phần Chứng khoán Thương mại và Công nghiệp Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1693">
       <c r="A1693" t="n">
-        <v>1046</v>
+        <v>1655</v>
       </c>
       <c r="B1693" t="inlineStr">
         <is>
-          <t>VIM</t>
+          <t>VIH</t>
         </is>
       </c>
       <c r="C1693" t="n">
@@ -39372,17 +39372,17 @@
       </c>
       <c r="E1693" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Khoáng sản Viglacera</t>
+          <t>Công ty Cổ phần Viglacera Hà Nội</t>
         </is>
       </c>
     </row>
     <row r="1694">
       <c r="A1694" t="n">
-        <v>1202</v>
+        <v>1046</v>
       </c>
       <c r="B1694" t="inlineStr">
         <is>
-          <t>VIN</t>
+          <t>VIM</t>
         </is>
       </c>
       <c r="C1694" t="n">
@@ -39395,17 +39395,17 @@
       </c>
       <c r="E1694" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Giao nhận Kho vận Ngoại thương Việt Nam</t>
+          <t>Công ty Cổ phần Khoáng sản Viglacera</t>
         </is>
       </c>
     </row>
     <row r="1695">
       <c r="A1695" t="n">
-        <v>180</v>
+        <v>1202</v>
       </c>
       <c r="B1695" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VIN</t>
         </is>
       </c>
       <c r="C1695" t="n">
@@ -39413,22 +39413,22 @@
       </c>
       <c r="D1695" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1695" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vận tải Xăng dầu VIPCO</t>
+          <t>Công ty Cổ phần Giao nhận Kho vận Ngoại thương Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1696">
       <c r="A1696" t="n">
-        <v>781</v>
+        <v>180</v>
       </c>
       <c r="B1696" t="inlineStr">
         <is>
-          <t>VIR</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="C1696" t="n">
@@ -39436,22 +39436,22 @@
       </c>
       <c r="D1696" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1696" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Du lịch Quốc tế Vũng Tàu</t>
+          <t>Công ty Cổ phần Vận tải Xăng dầu VIPCO</t>
         </is>
       </c>
     </row>
     <row r="1697">
       <c r="A1697" t="n">
-        <v>583</v>
+        <v>781</v>
       </c>
       <c r="B1697" t="inlineStr">
         <is>
-          <t>VIT</t>
+          <t>VIR</t>
         </is>
       </c>
       <c r="C1697" t="n">
@@ -39459,22 +39459,22 @@
       </c>
       <c r="D1697" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1697" t="inlineStr">
         <is>
-          <t xml:space="preserve">CÔNG TY CỔ PHẦN VIGLACERA TIÊN SƠN </t>
+          <t>Công ty Cổ phần Du lịch Quốc tế Vũng Tàu</t>
         </is>
       </c>
     </row>
     <row r="1698">
       <c r="A1698" t="n">
-        <v>1853</v>
+        <v>583</v>
       </c>
       <c r="B1698" t="inlineStr">
         <is>
-          <t>VIW</t>
+          <t>VIT</t>
         </is>
       </c>
       <c r="C1698" t="n">
@@ -39482,22 +39482,22 @@
       </c>
       <c r="D1698" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1698" t="inlineStr">
         <is>
-          <t>Tổng công ty Đầu tư Nước và Môi trường Việt Nam - CTCP</t>
+          <t xml:space="preserve">CÔNG TY CỔ PHẦN VIGLACERA TIÊN SƠN </t>
         </is>
       </c>
     </row>
     <row r="1699">
       <c r="A1699" t="n">
-        <v>644</v>
+        <v>1853</v>
       </c>
       <c r="B1699" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>VIW</t>
         </is>
       </c>
       <c r="C1699" t="n">
@@ -39505,22 +39505,22 @@
       </c>
       <c r="D1699" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1699" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Chứng khoán VIX</t>
+          <t>Tổng công ty Đầu tư Nước và Môi trường Việt Nam - CTCP</t>
         </is>
       </c>
     </row>
     <row r="1700">
       <c r="A1700" t="n">
-        <v>1689</v>
+        <v>644</v>
       </c>
       <c r="B1700" t="inlineStr">
         <is>
-          <t>VJC</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="C1700" t="n">
@@ -39533,17 +39533,17 @@
       </c>
       <c r="E1700" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Hàng không Vietjet</t>
+          <t>Công ty Cổ phần Chứng khoán VIX</t>
         </is>
       </c>
     </row>
     <row r="1701">
       <c r="A1701" t="n">
-        <v>963</v>
+        <v>1689</v>
       </c>
       <c r="B1701" t="inlineStr">
         <is>
-          <t>VKC</t>
+          <t>VJC</t>
         </is>
       </c>
       <c r="C1701" t="n">
@@ -39551,22 +39551,22 @@
       </c>
       <c r="D1701" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1701" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần VKC Holdings</t>
+          <t>Công ty Cổ phần Hàng không Vietjet</t>
         </is>
       </c>
     </row>
     <row r="1702">
       <c r="A1702" t="n">
-        <v>669</v>
+        <v>963</v>
       </c>
       <c r="B1702" t="inlineStr">
         <is>
-          <t>VKD</t>
+          <t>VKC</t>
         </is>
       </c>
       <c r="C1702" t="n">
@@ -39574,22 +39574,22 @@
       </c>
       <c r="D1702" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1702" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Nước khoáng Khánh Hòa - FIT Beverage</t>
+          <t>Công ty Cổ phần VKC Holdings</t>
         </is>
       </c>
     </row>
     <row r="1703">
       <c r="A1703" t="n">
-        <v>337</v>
+        <v>669</v>
       </c>
       <c r="B1703" t="inlineStr">
         <is>
-          <t>VKP</t>
+          <t>VKD</t>
         </is>
       </c>
       <c r="C1703" t="n">
@@ -39602,17 +39602,17 @@
       </c>
       <c r="E1703" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Nhựa Tân Hóa</t>
+          <t>Công ty Cổ phần Nước khoáng Khánh Hòa - FIT Beverage</t>
         </is>
       </c>
     </row>
     <row r="1704">
       <c r="A1704" t="n">
-        <v>869</v>
+        <v>337</v>
       </c>
       <c r="B1704" t="inlineStr">
         <is>
-          <t>VLA</t>
+          <t>VKP</t>
         </is>
       </c>
       <c r="C1704" t="n">
@@ -39620,22 +39620,22 @@
       </c>
       <c r="D1704" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1704" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư và Phát triển Công nghệ Văn Lang</t>
+          <t>Công ty Cổ phần Nhựa Tân Hóa</t>
         </is>
       </c>
     </row>
     <row r="1705">
       <c r="A1705" t="n">
-        <v>1499</v>
+        <v>869</v>
       </c>
       <c r="B1705" t="inlineStr">
         <is>
-          <t>VLB</t>
+          <t>VLA</t>
         </is>
       </c>
       <c r="C1705" t="n">
@@ -39643,22 +39643,22 @@
       </c>
       <c r="D1705" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1705" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xây dựng và Sản xuất Vật liệu Xây dựng Biên Hòa</t>
+          <t>Công ty Cổ phần Đầu tư và Phát triển Công nghệ Văn Lang</t>
         </is>
       </c>
     </row>
     <row r="1706">
       <c r="A1706" t="n">
-        <v>1316</v>
+        <v>1499</v>
       </c>
       <c r="B1706" t="inlineStr">
         <is>
-          <t>VLC</t>
+          <t>VLB</t>
         </is>
       </c>
       <c r="C1706" t="n">
@@ -39671,17 +39671,17 @@
       </c>
       <c r="E1706" t="inlineStr">
         <is>
-          <t>Tổng Công ty Chăn nuôi Việt Nam - CTCP</t>
+          <t>Công ty Cổ phần Xây dựng và Sản xuất Vật liệu Xây dựng Biên Hòa</t>
         </is>
       </c>
     </row>
     <row r="1707">
       <c r="A1707" t="n">
-        <v>975</v>
+        <v>1316</v>
       </c>
       <c r="B1707" t="inlineStr">
         <is>
-          <t>VLF</t>
+          <t>VLC</t>
         </is>
       </c>
       <c r="C1707" t="n">
@@ -39694,17 +39694,17 @@
       </c>
       <c r="E1707" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Lương thực Thực phẩm Vĩnh Long</t>
+          <t>Tổng Công ty Chăn nuôi Việt Nam - CTCP</t>
         </is>
       </c>
     </row>
     <row r="1708">
       <c r="A1708" t="n">
-        <v>1371</v>
+        <v>975</v>
       </c>
       <c r="B1708" t="inlineStr">
         <is>
-          <t>VLG</t>
+          <t>VLF</t>
         </is>
       </c>
       <c r="C1708" t="n">
@@ -39717,17 +39717,17 @@
       </c>
       <c r="E1708" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vimc Logistics</t>
+          <t>Công ty Cổ phần Lương thực Thực phẩm Vĩnh Long</t>
         </is>
       </c>
     </row>
     <row r="1709">
       <c r="A1709" t="n">
-        <v>1704</v>
+        <v>1371</v>
       </c>
       <c r="B1709" t="inlineStr">
         <is>
-          <t>VLP</t>
+          <t>VLG</t>
         </is>
       </c>
       <c r="C1709" t="n">
@@ -39740,17 +39740,17 @@
       </c>
       <c r="E1709" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Công trình Công cộng Vĩnh Long</t>
+          <t>Công ty Cổ phần Vimc Logistics</t>
         </is>
       </c>
     </row>
     <row r="1710">
       <c r="A1710" t="n">
-        <v>1562</v>
+        <v>1704</v>
       </c>
       <c r="B1710" t="inlineStr">
         <is>
-          <t>VLW</t>
+          <t>VLP</t>
         </is>
       </c>
       <c r="C1710" t="n">
@@ -39763,17 +39763,17 @@
       </c>
       <c r="E1710" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Cấp nước Vĩnh Long</t>
+          <t>Công ty Cổ phần Công trình Công cộng Vĩnh Long</t>
         </is>
       </c>
     </row>
     <row r="1711">
       <c r="A1711" t="n">
-        <v>1138</v>
+        <v>1562</v>
       </c>
       <c r="B1711" t="inlineStr">
         <is>
-          <t>VMA</t>
+          <t>VLW</t>
         </is>
       </c>
       <c r="C1711" t="n">
@@ -39786,17 +39786,17 @@
       </c>
       <c r="E1711" t="inlineStr">
         <is>
-          <t>CÔNG TY CỔ PHẦN CÔNG NGHIỆP Ô TÔ - VINACOMIN</t>
+          <t>Công ty Cổ phần Cấp nước Vĩnh Long</t>
         </is>
       </c>
     </row>
     <row r="1712">
       <c r="A1712" t="n">
-        <v>182</v>
+        <v>1138</v>
       </c>
       <c r="B1712" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>VMA</t>
         </is>
       </c>
       <c r="C1712" t="n">
@@ -39804,22 +39804,22 @@
       </c>
       <c r="D1712" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1712" t="inlineStr">
         <is>
-          <t>Công ty cổ phần Vimeco</t>
+          <t>CÔNG TY CỔ PHẦN CÔNG NGHIỆP Ô TÔ - VINACOMIN</t>
         </is>
       </c>
     </row>
     <row r="1713">
       <c r="A1713" t="n">
-        <v>897</v>
+        <v>182</v>
       </c>
       <c r="B1713" t="inlineStr">
         <is>
-          <t>VMD</t>
+          <t>VMC</t>
         </is>
       </c>
       <c r="C1713" t="n">
@@ -39827,22 +39827,22 @@
       </c>
       <c r="D1713" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1713" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Y Dược phẩm VIMEDIMEX</t>
+          <t>Công ty cổ phần Vimeco</t>
         </is>
       </c>
     </row>
     <row r="1714">
       <c r="A1714" t="n">
-        <v>551</v>
+        <v>897</v>
       </c>
       <c r="B1714" t="inlineStr">
         <is>
-          <t>VMG</t>
+          <t>VMD</t>
         </is>
       </c>
       <c r="C1714" t="n">
@@ -39850,22 +39850,22 @@
       </c>
       <c r="D1714" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1714" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Thương mại và Dịch vụ Dầu khí Vũng Tàu </t>
+          <t>Công ty Cổ phần Y Dược phẩm VIMEDIMEX</t>
         </is>
       </c>
     </row>
     <row r="1715">
       <c r="A1715" t="n">
-        <v>1257</v>
+        <v>551</v>
       </c>
       <c r="B1715" t="inlineStr">
         <is>
-          <t>VMI</t>
+          <t>VMG</t>
         </is>
       </c>
       <c r="C1715" t="n">
@@ -39878,17 +39878,17 @@
       </c>
       <c r="E1715" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Khoáng sản và Đầu tư VISACO</t>
+          <t xml:space="preserve">Công ty Cổ phần Thương mại và Dịch vụ Dầu khí Vũng Tàu </t>
         </is>
       </c>
     </row>
     <row r="1716">
       <c r="A1716" t="n">
-        <v>1145</v>
+        <v>1257</v>
       </c>
       <c r="B1716" t="inlineStr">
         <is>
-          <t>VMS</t>
+          <t>VMI</t>
         </is>
       </c>
       <c r="C1716" t="n">
@@ -39896,22 +39896,22 @@
       </c>
       <c r="D1716" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1716" t="inlineStr">
         <is>
-          <t xml:space="preserve">CTCP Phát triển Hàng hải </t>
+          <t>Công ty Cổ phần Khoáng sản và Đầu tư VISACO</t>
         </is>
       </c>
     </row>
     <row r="1717">
       <c r="A1717" t="n">
-        <v>353</v>
+        <v>1145</v>
       </c>
       <c r="B1717" t="inlineStr">
         <is>
-          <t>VNA</t>
+          <t>VMS</t>
         </is>
       </c>
       <c r="C1717" t="n">
@@ -39919,22 +39919,22 @@
       </c>
       <c r="D1717" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1717" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vận tải biển Vinaship</t>
+          <t xml:space="preserve">CTCP Phát triển Hàng hải </t>
         </is>
       </c>
     </row>
     <row r="1718">
       <c r="A1718" t="n">
-        <v>1508</v>
+        <v>353</v>
       </c>
       <c r="B1718" t="inlineStr">
         <is>
-          <t>VNB</t>
+          <t>VNA</t>
         </is>
       </c>
       <c r="C1718" t="n">
@@ -39947,17 +39947,17 @@
       </c>
       <c r="E1718" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Sách Việt Nam</t>
+          <t>Công ty Cổ phần Vận tải biển Vinaship</t>
         </is>
       </c>
     </row>
     <row r="1719">
       <c r="A1719" t="n">
-        <v>183</v>
+        <v>1508</v>
       </c>
       <c r="B1719" t="inlineStr">
         <is>
-          <t>VNC</t>
+          <t>VNB</t>
         </is>
       </c>
       <c r="C1719" t="n">
@@ -39965,22 +39965,22 @@
       </c>
       <c r="D1719" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1719" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tập đoàn Vinacontrol</t>
+          <t>Công ty Cổ phần Sách Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1720">
       <c r="A1720" t="n">
-        <v>731</v>
+        <v>183</v>
       </c>
       <c r="B1720" t="inlineStr">
         <is>
-          <t>VND</t>
+          <t>VNC</t>
         </is>
       </c>
       <c r="C1720" t="n">
@@ -39988,22 +39988,22 @@
       </c>
       <c r="D1720" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1720" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Chứng khoán VNDIRECT</t>
+          <t>Công ty Cổ phần Tập đoàn Vinacontrol</t>
         </is>
       </c>
     </row>
     <row r="1721">
       <c r="A1721" t="n">
-        <v>2987</v>
+        <v>731</v>
       </c>
       <c r="B1721" t="inlineStr">
         <is>
-          <t>VND122012</t>
+          <t>VND</t>
         </is>
       </c>
       <c r="C1721" t="n">
@@ -40011,22 +40011,22 @@
       </c>
       <c r="D1721" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1721" t="inlineStr">
         <is>
-          <t>Trái phiếu Công ty Cổ phần Chứng khoán VNDIRECT</t>
+          <t>Công ty Cổ phần Chứng khoán VNDIRECT</t>
         </is>
       </c>
     </row>
     <row r="1722">
       <c r="A1722" t="n">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B1722" t="inlineStr">
         <is>
-          <t>VND122013</t>
+          <t>VND122012</t>
         </is>
       </c>
       <c r="C1722" t="n">
@@ -40045,11 +40045,11 @@
     </row>
     <row r="1723">
       <c r="A1723" t="n">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="B1723" t="inlineStr">
         <is>
-          <t>VND122014</t>
+          <t>VND122013</t>
         </is>
       </c>
       <c r="C1723" t="n">
@@ -40062,17 +40062,17 @@
       </c>
       <c r="E1723" t="inlineStr">
         <is>
-          <t>Trái phiếu Công ty cổ phần Chứng khoán VNDIRECT</t>
+          <t>Trái phiếu Công ty Cổ phần Chứng khoán VNDIRECT</t>
         </is>
       </c>
     </row>
     <row r="1724">
       <c r="A1724" t="n">
-        <v>222</v>
+        <v>2989</v>
       </c>
       <c r="B1724" t="inlineStr">
         <is>
-          <t>VNE</t>
+          <t>VND122014</t>
         </is>
       </c>
       <c r="C1724" t="n">
@@ -40080,22 +40080,22 @@
       </c>
       <c r="D1724" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1724" t="inlineStr">
         <is>
-          <t>Tổng Công ty Cổ phần Xây dựng Điện Việt Nam</t>
+          <t>Trái phiếu Công ty cổ phần Chứng khoán VNDIRECT</t>
         </is>
       </c>
     </row>
     <row r="1725">
       <c r="A1725" t="n">
-        <v>504</v>
+        <v>222</v>
       </c>
       <c r="B1725" t="inlineStr">
         <is>
-          <t>VNF</t>
+          <t>VNE</t>
         </is>
       </c>
       <c r="C1725" t="n">
@@ -40103,22 +40103,22 @@
       </c>
       <c r="D1725" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1725" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần VINAFREIGHT</t>
+          <t>Tổng Công ty Cổ phần Xây dựng Điện Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1726">
       <c r="A1726" t="n">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="B1726" t="inlineStr">
         <is>
-          <t>VNG</t>
+          <t>VNF</t>
         </is>
       </c>
       <c r="C1726" t="n">
@@ -40126,22 +40126,22 @@
       </c>
       <c r="D1726" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1726" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Du lịch Thành Thành Công</t>
+          <t>Công ty Cổ phần VINAFREIGHT</t>
         </is>
       </c>
     </row>
     <row r="1727">
       <c r="A1727" t="n">
-        <v>2986</v>
+        <v>554</v>
       </c>
       <c r="B1727" t="inlineStr">
         <is>
-          <t>VNG122002</t>
+          <t>VNG</t>
         </is>
       </c>
       <c r="C1727" t="n">
@@ -40149,22 +40149,22 @@
       </c>
       <c r="D1727" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1727" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trái phiếu VNGB2124001 của Công ty Cổ phần Du lịch Thành Thành Công </t>
+          <t>Công ty Cổ phần Du lịch Thành Thành Công</t>
         </is>
       </c>
     </row>
     <row r="1728">
       <c r="A1728" t="n">
-        <v>739</v>
+        <v>2986</v>
       </c>
       <c r="B1728" t="inlineStr">
         <is>
-          <t>VNH</t>
+          <t>VNG122002</t>
         </is>
       </c>
       <c r="C1728" t="n">
@@ -40172,22 +40172,22 @@
       </c>
       <c r="D1728" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1728" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư Việt Việt Nhật</t>
+          <t xml:space="preserve">Trái phiếu VNGB2124001 của Công ty Cổ phần Du lịch Thành Thành Công </t>
         </is>
       </c>
     </row>
     <row r="1729">
       <c r="A1729" t="n">
-        <v>544</v>
+        <v>739</v>
       </c>
       <c r="B1729" t="inlineStr">
         <is>
-          <t>VNI</t>
+          <t>VNH</t>
         </is>
       </c>
       <c r="C1729" t="n">
@@ -40200,17 +40200,17 @@
       </c>
       <c r="E1729" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư Bất động sản Việt Nam</t>
+          <t>Công ty Cổ phần Đầu tư Việt Việt Nhật</t>
         </is>
       </c>
     </row>
     <row r="1730">
       <c r="A1730" t="n">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="B1730" t="inlineStr">
         <is>
-          <t>VNL</t>
+          <t>VNI</t>
         </is>
       </c>
       <c r="C1730" t="n">
@@ -40218,22 +40218,22 @@
       </c>
       <c r="D1730" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1730" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Logistics Vinalink</t>
+          <t>Công ty Cổ phần Đầu tư Bất động sản Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1731">
       <c r="A1731" t="n">
-        <v>184</v>
+        <v>529</v>
       </c>
       <c r="B1731" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>VNL</t>
         </is>
       </c>
       <c r="C1731" t="n">
@@ -40246,17 +40246,17 @@
       </c>
       <c r="E1731" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Sữa Việt Nam</t>
+          <t>Công ty Cổ phần Logistics Vinalink</t>
         </is>
       </c>
     </row>
     <row r="1732">
       <c r="A1732" t="n">
-        <v>1196</v>
+        <v>184</v>
       </c>
       <c r="B1732" t="inlineStr">
         <is>
-          <t>VNP</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="C1732" t="n">
@@ -40264,22 +40264,22 @@
       </c>
       <c r="D1732" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1732" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Nhựa Việt Nam</t>
+          <t>Công ty Cổ phần Sữa Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1733">
       <c r="A1733" t="n">
-        <v>185</v>
+        <v>1196</v>
       </c>
       <c r="B1733" t="inlineStr">
         <is>
-          <t>VNR</t>
+          <t>VNP</t>
         </is>
       </c>
       <c r="C1733" t="n">
@@ -40287,22 +40287,22 @@
       </c>
       <c r="D1733" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1733" t="inlineStr">
         <is>
-          <t>Tổng Công ty Cổ phần Tái bảo hiểm quốc gia Việt Nam</t>
+          <t>Công ty Cổ phần Nhựa Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1734">
       <c r="A1734" t="n">
-        <v>348</v>
+        <v>185</v>
       </c>
       <c r="B1734" t="inlineStr">
         <is>
-          <t>VNS</t>
+          <t>VNR</t>
         </is>
       </c>
       <c r="C1734" t="n">
@@ -40310,22 +40310,22 @@
       </c>
       <c r="D1734" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1734" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Ánh Dương Việt Nam</t>
+          <t>Tổng Công ty Cổ phần Tái bảo hiểm quốc gia Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1735">
       <c r="A1735" t="n">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B1735" t="inlineStr">
         <is>
-          <t>VNT</t>
+          <t>VNS</t>
         </is>
       </c>
       <c r="C1735" t="n">
@@ -40333,22 +40333,22 @@
       </c>
       <c r="D1735" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1735" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Giao nhận Vận tải Ngoại thương</t>
+          <t>Công ty Cổ phần Ánh Dương Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1736">
       <c r="A1736" t="n">
-        <v>2991</v>
+        <v>365</v>
       </c>
       <c r="B1736" t="inlineStr">
         <is>
-          <t>VNT421032</t>
+          <t>VNT</t>
         </is>
       </c>
       <c r="C1736" t="n">
@@ -40361,17 +40361,17 @@
       </c>
       <c r="E1736" t="inlineStr">
         <is>
-          <t>Trái phiếu chuyển đổi Công ty cổ phần Giao nhận Vận tải Ngoại thương</t>
+          <t>Công ty Cổ phần Giao nhận Vận tải Ngoại thương</t>
         </is>
       </c>
     </row>
     <row r="1737">
       <c r="A1737" t="n">
-        <v>602</v>
+        <v>2991</v>
       </c>
       <c r="B1737" t="inlineStr">
         <is>
-          <t>VNX</t>
+          <t>VNT421032</t>
         </is>
       </c>
       <c r="C1737" t="n">
@@ -40379,22 +40379,22 @@
       </c>
       <c r="D1737" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1737" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Quảng cáo và Hội chợ Thương mại</t>
+          <t>Trái phiếu chuyển đổi Công ty cổ phần Giao nhận Vận tải Ngoại thương</t>
         </is>
       </c>
     </row>
     <row r="1738">
       <c r="A1738" t="n">
-        <v>1139</v>
+        <v>602</v>
       </c>
       <c r="B1738" t="inlineStr">
         <is>
-          <t>VNY</t>
+          <t>VNX</t>
         </is>
       </c>
       <c r="C1738" t="n">
@@ -40407,17 +40407,17 @@
       </c>
       <c r="E1738" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Thuốc Thú y Trung Ương I </t>
+          <t>Công ty Cổ phần Quảng cáo và Hội chợ Thương mại</t>
         </is>
       </c>
     </row>
     <row r="1739">
       <c r="A1739" t="n">
-        <v>1490</v>
+        <v>1139</v>
       </c>
       <c r="B1739" t="inlineStr">
         <is>
-          <t>VOC</t>
+          <t>VNY</t>
         </is>
       </c>
       <c r="C1739" t="n">
@@ -40430,17 +40430,17 @@
       </c>
       <c r="E1739" t="inlineStr">
         <is>
-          <t>Tổng Công ty Công nghiệp Dầu thực vật Việt Nam - CTCP</t>
+          <t xml:space="preserve">Công ty Cổ phần Thuốc Thú y Trung Ương I </t>
         </is>
       </c>
     </row>
     <row r="1740">
       <c r="A1740" t="n">
-        <v>894</v>
+        <v>1490</v>
       </c>
       <c r="B1740" t="inlineStr">
         <is>
-          <t>VOS</t>
+          <t>VOC</t>
         </is>
       </c>
       <c r="C1740" t="n">
@@ -40448,22 +40448,22 @@
       </c>
       <c r="D1740" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1740" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vận tải Biển Việt Nam</t>
+          <t>Tổng Công ty Công nghiệp Dầu thực vật Việt Nam - CTCP</t>
         </is>
       </c>
     </row>
     <row r="1741">
       <c r="A1741" t="n">
-        <v>1436</v>
+        <v>894</v>
       </c>
       <c r="B1741" t="inlineStr">
         <is>
-          <t>VPA</t>
+          <t>VOS</t>
         </is>
       </c>
       <c r="C1741" t="n">
@@ -40471,22 +40471,22 @@
       </c>
       <c r="D1741" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1741" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vận tải hóa dầu VP</t>
+          <t>Công ty Cổ phần Vận tải Biển Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1742">
       <c r="A1742" t="n">
-        <v>436</v>
+        <v>1436</v>
       </c>
       <c r="B1742" t="inlineStr">
         <is>
-          <t>VPB</t>
+          <t>VPA</t>
         </is>
       </c>
       <c r="C1742" t="n">
@@ -40494,22 +40494,22 @@
       </c>
       <c r="D1742" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1742" t="inlineStr">
         <is>
-          <t>Ngân hàng thương mại Cổ phần Việt Nam Thịnh Vượng</t>
+          <t>Công ty Cổ phần Vận tải hóa dầu VP</t>
         </is>
       </c>
     </row>
     <row r="1743">
       <c r="A1743" t="n">
-        <v>561</v>
+        <v>436</v>
       </c>
       <c r="B1743" t="inlineStr">
         <is>
-          <t>VPC</t>
+          <t>VPB</t>
         </is>
       </c>
       <c r="C1743" t="n">
@@ -40517,22 +40517,22 @@
       </c>
       <c r="D1743" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1743" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư và Phát triển Năng lượng Việt Nam</t>
+          <t>Ngân hàng thương mại Cổ phần Việt Nam Thịnh Vượng</t>
         </is>
       </c>
     </row>
     <row r="1744">
       <c r="A1744" t="n">
-        <v>1243</v>
+        <v>561</v>
       </c>
       <c r="B1744" t="inlineStr">
         <is>
-          <t>VPD</t>
+          <t>VPC</t>
         </is>
       </c>
       <c r="C1744" t="n">
@@ -40540,22 +40540,22 @@
       </c>
       <c r="D1744" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1744" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Phát triển Điện lực Việt Nam </t>
+          <t>Công ty Cổ phần Đầu tư và Phát triển Năng lượng Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1745">
       <c r="A1745" t="n">
-        <v>1820</v>
+        <v>1243</v>
       </c>
       <c r="B1745" t="inlineStr">
         <is>
-          <t>VPG</t>
+          <t>VPD</t>
         </is>
       </c>
       <c r="C1745" t="n">
@@ -40568,17 +40568,17 @@
       </c>
       <c r="E1745" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Đầu tư Thương mại Xuất nhập khẩu Việt Phát </t>
+          <t xml:space="preserve">Công ty Cổ phần Phát triển Điện lực Việt Nam </t>
         </is>
       </c>
     </row>
     <row r="1746">
       <c r="A1746" t="n">
-        <v>541</v>
+        <v>1820</v>
       </c>
       <c r="B1746" t="inlineStr">
         <is>
-          <t>VPH</t>
+          <t>VPG</t>
         </is>
       </c>
       <c r="C1746" t="n">
@@ -40591,17 +40591,17 @@
       </c>
       <c r="E1746" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vạn Phát Hưng</t>
+          <t xml:space="preserve">Công ty Cổ phần Đầu tư Thương mại Xuất nhập khẩu Việt Phát </t>
         </is>
       </c>
     </row>
     <row r="1747">
       <c r="A1747" t="n">
-        <v>1877</v>
+        <v>541</v>
       </c>
       <c r="B1747" t="inlineStr">
         <is>
-          <t>VPI</t>
+          <t>VPH</t>
         </is>
       </c>
       <c r="C1747" t="n">
@@ -40614,17 +40614,17 @@
       </c>
       <c r="E1747" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Đầu tư Văn Phú - Invest </t>
+          <t>Công ty Cổ phần Vạn Phát Hưng</t>
         </is>
       </c>
     </row>
     <row r="1748">
       <c r="A1748" t="n">
-        <v>1531</v>
+        <v>1877</v>
       </c>
       <c r="B1748" t="inlineStr">
         <is>
-          <t>VPR</t>
+          <t>VPI</t>
         </is>
       </c>
       <c r="C1748" t="n">
@@ -40632,22 +40632,22 @@
       </c>
       <c r="D1748" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1748" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần VINAPRINT</t>
+          <t xml:space="preserve">Công ty Cổ phần Đầu tư Văn Phú - Invest </t>
         </is>
       </c>
     </row>
     <row r="1749">
       <c r="A1749" t="n">
-        <v>1378</v>
+        <v>1531</v>
       </c>
       <c r="B1749" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>VPR</t>
         </is>
       </c>
       <c r="C1749" t="n">
@@ -40655,22 +40655,22 @@
       </c>
       <c r="D1749" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1749" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Thuốc sát trùng Việt Nam</t>
+          <t>Công ty Cổ phần VINAPRINT</t>
         </is>
       </c>
     </row>
     <row r="1750">
       <c r="A1750" t="n">
-        <v>1812</v>
+        <v>1378</v>
       </c>
       <c r="B1750" t="inlineStr">
         <is>
-          <t>VPW</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="C1750" t="n">
@@ -40678,22 +40678,22 @@
       </c>
       <c r="D1750" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1750" t="inlineStr">
         <is>
-          <t>CTCP cấp thoát nước số I Vĩnh Phúc</t>
+          <t>Công ty Cổ phần Thuốc sát trùng Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1751">
       <c r="A1751" t="n">
-        <v>652</v>
+        <v>1812</v>
       </c>
       <c r="B1751" t="inlineStr">
         <is>
-          <t>VQC</t>
+          <t>VPW</t>
         </is>
       </c>
       <c r="C1751" t="n">
@@ -40706,17 +40706,17 @@
       </c>
       <c r="E1751" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Giám định Vinacomin </t>
+          <t>CTCP cấp thoát nước số I Vĩnh Phúc</t>
         </is>
       </c>
     </row>
     <row r="1752">
       <c r="A1752" t="n">
-        <v>867</v>
+        <v>652</v>
       </c>
       <c r="B1752" t="inlineStr">
         <is>
-          <t>VRC</t>
+          <t>VQC</t>
         </is>
       </c>
       <c r="C1752" t="n">
@@ -40724,22 +40724,22 @@
       </c>
       <c r="D1752" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1752" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Công ty Cổ phần Bất động sản và Đầu tư VRC </t>
+          <t xml:space="preserve">Công ty Cổ phần Giám định Vinacomin </t>
         </is>
       </c>
     </row>
     <row r="1753">
       <c r="A1753" t="n">
-        <v>1867</v>
+        <v>867</v>
       </c>
       <c r="B1753" t="inlineStr">
         <is>
-          <t>VRE</t>
+          <t>VRC</t>
         </is>
       </c>
       <c r="C1753" t="n">
@@ -40752,17 +40752,17 @@
       </c>
       <c r="E1753" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vincom Retail</t>
+          <t xml:space="preserve"> Công ty Cổ phần Bất động sản và Đầu tư VRC </t>
         </is>
       </c>
     </row>
     <row r="1754">
       <c r="A1754" t="n">
-        <v>2985</v>
+        <v>1867</v>
       </c>
       <c r="B1754" t="inlineStr">
         <is>
-          <t>VRE12007</t>
+          <t>VRE</t>
         </is>
       </c>
       <c r="C1754" t="n">
@@ -40770,22 +40770,22 @@
       </c>
       <c r="D1754" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1754" t="inlineStr">
         <is>
-          <t>Trái phiếu BONDVCR042025 của Công ty Cổ phần Vincom Retail</t>
+          <t>Công ty Cổ phần Vincom Retail</t>
         </is>
       </c>
     </row>
     <row r="1755">
       <c r="A1755" t="n">
-        <v>1213</v>
+        <v>2985</v>
       </c>
       <c r="B1755" t="inlineStr">
         <is>
-          <t>VRG</t>
+          <t>VRE12007</t>
         </is>
       </c>
       <c r="C1755" t="n">
@@ -40793,22 +40793,22 @@
       </c>
       <c r="D1755" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1755" t="inlineStr">
         <is>
-          <t>Công ty cổ phần Phát triển Đô thị và Khu công nghiệp Cao su Việt Nam</t>
+          <t>Trái phiếu BONDVCR042025 của Công ty Cổ phần Vincom Retail</t>
         </is>
       </c>
     </row>
     <row r="1756">
       <c r="A1756" t="n">
-        <v>1432</v>
+        <v>1213</v>
       </c>
       <c r="B1756" t="inlineStr">
         <is>
-          <t>VSA</t>
+          <t>VRG</t>
         </is>
       </c>
       <c r="C1756" t="n">
@@ -40816,22 +40816,22 @@
       </c>
       <c r="D1756" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1756" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đại lý Hàng hải Việt Nam</t>
+          <t>Công ty cổ phần Phát triển Đô thị và Khu công nghiệp Cao su Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1757">
       <c r="A1757" t="n">
-        <v>294</v>
+        <v>1432</v>
       </c>
       <c r="B1757" t="inlineStr">
         <is>
-          <t>VSC</t>
+          <t>VSA</t>
         </is>
       </c>
       <c r="C1757" t="n">
@@ -40839,22 +40839,22 @@
       </c>
       <c r="D1757" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1757" t="inlineStr">
         <is>
-          <t>CÔNG TY CỔ PHẦN CONTAINER VIỆT NAM</t>
+          <t>Công ty Cổ phần Đại lý Hàng hải Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1758">
       <c r="A1758" t="n">
-        <v>1989</v>
+        <v>294</v>
       </c>
       <c r="B1758" t="inlineStr">
         <is>
-          <t>VSE</t>
+          <t>VSC</t>
         </is>
       </c>
       <c r="C1758" t="n">
@@ -40862,22 +40862,22 @@
       </c>
       <c r="D1758" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1758" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Dịch vụ Đường cao tốc Việt Nam </t>
+          <t>CÔNG TY CỔ PHẦN CONTAINER VIỆT NAM</t>
         </is>
       </c>
     </row>
     <row r="1759">
       <c r="A1759" t="n">
-        <v>1950</v>
+        <v>1989</v>
       </c>
       <c r="B1759" t="inlineStr">
         <is>
-          <t>VSF</t>
+          <t>VSE</t>
         </is>
       </c>
       <c r="C1759" t="n">
@@ -40890,17 +40890,17 @@
       </c>
       <c r="E1759" t="inlineStr">
         <is>
-          <t>Tổng Công ty Lương thực Miền Nam - Công ty Cổ phần</t>
+          <t xml:space="preserve">Công ty Cổ phần Dịch vụ Đường cao tốc Việt Nam </t>
         </is>
       </c>
     </row>
     <row r="1760">
       <c r="A1760" t="n">
-        <v>356</v>
+        <v>1950</v>
       </c>
       <c r="B1760" t="inlineStr">
         <is>
-          <t>VSG</t>
+          <t>VSF</t>
         </is>
       </c>
       <c r="C1760" t="n">
@@ -40913,17 +40913,17 @@
       </c>
       <c r="E1760" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Container Phía Nam</t>
+          <t>Tổng Công ty Lương thực Miền Nam - Công ty Cổ phần</t>
         </is>
       </c>
     </row>
     <row r="1761">
       <c r="A1761" t="n">
-        <v>187</v>
+        <v>356</v>
       </c>
       <c r="B1761" t="inlineStr">
         <is>
-          <t>VSH</t>
+          <t>VSG</t>
         </is>
       </c>
       <c r="C1761" t="n">
@@ -40931,22 +40931,22 @@
       </c>
       <c r="D1761" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1761" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Thuỷ điện Vĩnh Sơn Sông Hinh</t>
+          <t>Công ty Cổ phần Container Phía Nam</t>
         </is>
       </c>
     </row>
     <row r="1762">
       <c r="A1762" t="n">
-        <v>970</v>
+        <v>187</v>
       </c>
       <c r="B1762" t="inlineStr">
         <is>
-          <t>VSI</t>
+          <t>VSH</t>
         </is>
       </c>
       <c r="C1762" t="n">
@@ -40959,17 +40959,17 @@
       </c>
       <c r="E1762" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư và Xây dựng Cấp thoát nước</t>
+          <t>Công ty Cổ phần Thuỷ điện Vĩnh Sơn Sông Hinh</t>
         </is>
       </c>
     </row>
     <row r="1763">
       <c r="A1763" t="n">
-        <v>1510</v>
+        <v>970</v>
       </c>
       <c r="B1763" t="inlineStr">
         <is>
-          <t>VSM</t>
+          <t>VSI</t>
         </is>
       </c>
       <c r="C1763" t="n">
@@ -40977,22 +40977,22 @@
       </c>
       <c r="D1763" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1763" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Container Miền Trung</t>
+          <t>Công ty Cổ phần Đầu tư và Xây dựng Cấp thoát nước</t>
         </is>
       </c>
     </row>
     <row r="1764">
       <c r="A1764" t="n">
-        <v>1560</v>
+        <v>1510</v>
       </c>
       <c r="B1764" t="inlineStr">
         <is>
-          <t>VSN</t>
+          <t>VSM</t>
         </is>
       </c>
       <c r="C1764" t="n">
@@ -41000,22 +41000,22 @@
       </c>
       <c r="D1764" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1764" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Việt Nam Kỹ nghệ Súc sản</t>
+          <t>Công ty Cổ phần Container Miền Trung</t>
         </is>
       </c>
     </row>
     <row r="1765">
       <c r="A1765" t="n">
-        <v>188</v>
+        <v>1560</v>
       </c>
       <c r="B1765" t="inlineStr">
         <is>
-          <t>VSP</t>
+          <t>VSN</t>
         </is>
       </c>
       <c r="C1765" t="n">
@@ -41028,17 +41028,17 @@
       </c>
       <c r="E1765" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vận tải biển và Bất động sản Việt Hải</t>
+          <t>Công ty Cổ phần Việt Nam Kỹ nghệ Súc sản</t>
         </is>
       </c>
     </row>
     <row r="1766">
       <c r="A1766" t="n">
-        <v>475</v>
+        <v>188</v>
       </c>
       <c r="B1766" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>VSP</t>
         </is>
       </c>
       <c r="C1766" t="n">
@@ -41051,17 +41051,17 @@
       </c>
       <c r="E1766" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vận tải và Thuê tàu biển Việt Nam</t>
+          <t>Công ty Cổ phần Vận tải biển và Bất động sản Việt Hải</t>
         </is>
       </c>
     </row>
     <row r="1767">
       <c r="A1767" t="n">
-        <v>189</v>
+        <v>475</v>
       </c>
       <c r="B1767" t="inlineStr">
         <is>
-          <t>VTA</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="C1767" t="n">
@@ -41074,17 +41074,17 @@
       </c>
       <c r="E1767" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần VITALY</t>
+          <t>Công ty Cổ phần Vận tải và Thuê tàu biển Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1768">
       <c r="A1768" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1768" t="inlineStr">
         <is>
-          <t>VTB</t>
+          <t>VTA</t>
         </is>
       </c>
       <c r="C1768" t="n">
@@ -41092,22 +41092,22 @@
       </c>
       <c r="D1768" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1768" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần VIETTRONICS Tân Bình</t>
+          <t>Công ty Cổ phần VITALY</t>
         </is>
       </c>
     </row>
     <row r="1769">
       <c r="A1769" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1769" t="inlineStr">
         <is>
-          <t>VTC</t>
+          <t>VTB</t>
         </is>
       </c>
       <c r="C1769" t="n">
@@ -41115,22 +41115,22 @@
       </c>
       <c r="D1769" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1769" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Viễn thông VTC</t>
+          <t>Công ty Cổ phần VIETTRONICS Tân Bình</t>
         </is>
       </c>
     </row>
     <row r="1770">
       <c r="A1770" t="n">
-        <v>2123</v>
+        <v>191</v>
       </c>
       <c r="B1770" t="inlineStr">
         <is>
-          <t>VTD</t>
+          <t>VTC</t>
         </is>
       </c>
       <c r="C1770" t="n">
@@ -41138,22 +41138,22 @@
       </c>
       <c r="D1770" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1770" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Du lịch Vietourist</t>
+          <t>Công ty Cổ phần Viễn thông VTC</t>
         </is>
       </c>
     </row>
     <row r="1771">
       <c r="A1771" t="n">
-        <v>1045</v>
+        <v>2123</v>
       </c>
       <c r="B1771" t="inlineStr">
         <is>
-          <t>VTE</t>
+          <t>VTD</t>
         </is>
       </c>
       <c r="C1771" t="n">
@@ -41166,17 +41166,17 @@
       </c>
       <c r="E1771" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vinacap Kim Long</t>
+          <t>Công ty Cổ phần Du lịch Vietourist</t>
         </is>
       </c>
     </row>
     <row r="1772">
       <c r="A1772" t="n">
-        <v>1158</v>
+        <v>1045</v>
       </c>
       <c r="B1772" t="inlineStr">
         <is>
-          <t>VTG</t>
+          <t>VTE</t>
         </is>
       </c>
       <c r="C1772" t="n">
@@ -41189,17 +41189,17 @@
       </c>
       <c r="E1772" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Du lịch Tỉnh Bà Rịa – Vũng Tàu</t>
+          <t>Công ty Cổ phần Vinacap Kim Long</t>
         </is>
       </c>
     </row>
     <row r="1773">
       <c r="A1773" t="n">
-        <v>1264</v>
+        <v>1158</v>
       </c>
       <c r="B1773" t="inlineStr">
         <is>
-          <t>VTH</t>
+          <t>VTG</t>
         </is>
       </c>
       <c r="C1773" t="n">
@@ -41207,22 +41207,22 @@
       </c>
       <c r="D1773" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1773" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Dây cáp điện Việt Thái</t>
+          <t>Công ty Cổ phần Du lịch Tỉnh Bà Rịa – Vũng Tàu</t>
         </is>
       </c>
     </row>
     <row r="1774">
       <c r="A1774" t="n">
-        <v>910</v>
+        <v>1264</v>
       </c>
       <c r="B1774" t="inlineStr">
         <is>
-          <t>VTI</t>
+          <t>VTH</t>
         </is>
       </c>
       <c r="C1774" t="n">
@@ -41230,22 +41230,22 @@
       </c>
       <c r="D1774" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1774" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Sản xuất - Xuất nhập khẩu Dệt may</t>
+          <t>Công ty Cổ phần Dây cáp điện Việt Thái</t>
         </is>
       </c>
     </row>
     <row r="1775">
       <c r="A1775" t="n">
-        <v>1284</v>
+        <v>910</v>
       </c>
       <c r="B1775" t="inlineStr">
         <is>
-          <t>VTJ</t>
+          <t>VTI</t>
         </is>
       </c>
       <c r="C1775" t="n">
@@ -41253,22 +41253,22 @@
       </c>
       <c r="D1775" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1775" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Thương mại và Đầu tư Vi na ta ba</t>
+          <t>Công ty Cổ phần Sản xuất - Xuất nhập khẩu Dệt may</t>
         </is>
       </c>
     </row>
     <row r="1776">
       <c r="A1776" t="n">
-        <v>1262</v>
+        <v>1284</v>
       </c>
       <c r="B1776" t="inlineStr">
         <is>
-          <t>VTK</t>
+          <t>VTJ</t>
         </is>
       </c>
       <c r="C1776" t="n">
@@ -41276,22 +41276,22 @@
       </c>
       <c r="D1776" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1776" t="inlineStr">
         <is>
-          <t>Công ty cổ phần Tư vấn và Dịch vụ Viettel</t>
+          <t>Công ty Cổ phần Thương mại và Đầu tư Vi na ta ba</t>
         </is>
       </c>
     </row>
     <row r="1777">
       <c r="A1777" t="n">
-        <v>192</v>
+        <v>1262</v>
       </c>
       <c r="B1777" t="inlineStr">
         <is>
-          <t>VTL</t>
+          <t>VTK</t>
         </is>
       </c>
       <c r="C1777" t="n">
@@ -41299,22 +41299,22 @@
       </c>
       <c r="D1777" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1777" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vang Thăng Long</t>
+          <t>Công ty cổ phần Tư vấn và Dịch vụ Viettel</t>
         </is>
       </c>
     </row>
     <row r="1778">
       <c r="A1778" t="n">
-        <v>1212</v>
+        <v>192</v>
       </c>
       <c r="B1778" t="inlineStr">
         <is>
-          <t>VTM</t>
+          <t>VTL</t>
         </is>
       </c>
       <c r="C1778" t="n">
@@ -41322,22 +41322,22 @@
       </c>
       <c r="D1778" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1778" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vận tải và đưa đón thợ mỏ - Vinacomin</t>
+          <t>Công ty Cổ phần Vang Thăng Long</t>
         </is>
       </c>
     </row>
     <row r="1779">
       <c r="A1779" t="n">
-        <v>239</v>
+        <v>1212</v>
       </c>
       <c r="B1779" t="inlineStr">
         <is>
-          <t>VTO</t>
+          <t>VTM</t>
         </is>
       </c>
       <c r="C1779" t="n">
@@ -41345,22 +41345,22 @@
       </c>
       <c r="D1779" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1779" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vận tải Xăng dầu Vitaco</t>
+          <t>Công ty Cổ phần Vận tải và đưa đón thợ mỏ - Vinacomin</t>
         </is>
       </c>
     </row>
     <row r="1780">
       <c r="A1780" t="n">
-        <v>1347</v>
+        <v>239</v>
       </c>
       <c r="B1780" t="inlineStr">
         <is>
-          <t>VTP</t>
+          <t>VTO</t>
         </is>
       </c>
       <c r="C1780" t="n">
@@ -41368,22 +41368,22 @@
       </c>
       <c r="D1780" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="E1780" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tổng Công ty Cổ phần Bưu chính Viettel </t>
+          <t>Công ty Cổ phần Vận tải Xăng dầu Vitaco</t>
         </is>
       </c>
     </row>
     <row r="1781">
       <c r="A1781" t="n">
-        <v>2506</v>
+        <v>1347</v>
       </c>
       <c r="B1781" t="inlineStr">
         <is>
-          <t>VTQ</t>
+          <t>VTP</t>
         </is>
       </c>
       <c r="C1781" t="n">
@@ -41396,17 +41396,17 @@
       </c>
       <c r="E1781" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Việt Trung Quảng Bình</t>
+          <t xml:space="preserve">Tổng Công ty Cổ phần Bưu chính Viettel </t>
         </is>
       </c>
     </row>
     <row r="1782">
       <c r="A1782" t="n">
-        <v>1368</v>
+        <v>2506</v>
       </c>
       <c r="B1782" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>VTQ</t>
         </is>
       </c>
       <c r="C1782" t="n">
@@ -41419,17 +41419,17 @@
       </c>
       <c r="E1782" t="inlineStr">
         <is>
-          <t>Công ty cổ phần Du lịch và Tiếp thị Giao thông Vận tải Việt Nam - Vietravel</t>
+          <t>Công ty Cổ phần Việt Trung Quảng Bình</t>
         </is>
       </c>
     </row>
     <row r="1783">
       <c r="A1783" t="n">
-        <v>193</v>
+        <v>1368</v>
       </c>
       <c r="B1783" t="inlineStr">
         <is>
-          <t>VTS</t>
+          <t>VTR</t>
         </is>
       </c>
       <c r="C1783" t="n">
@@ -41442,17 +41442,17 @@
       </c>
       <c r="E1783" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Viglacera Từ Sơn</t>
+          <t>Công ty cổ phần Du lịch và Tiếp thị Giao thông Vận tải Việt Nam - Vietravel</t>
         </is>
       </c>
     </row>
     <row r="1784">
       <c r="A1784" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1784" t="inlineStr">
         <is>
-          <t>VTV</t>
+          <t>VTS</t>
         </is>
       </c>
       <c r="C1784" t="n">
@@ -41460,22 +41460,22 @@
       </c>
       <c r="D1784" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1784" t="inlineStr">
         <is>
-          <t>Công ty cổ phần Năng lượng và Môi trường Vicem</t>
+          <t>Công ty Cổ phần Viglacera Từ Sơn</t>
         </is>
       </c>
     </row>
     <row r="1785">
       <c r="A1785" t="n">
-        <v>1215</v>
+        <v>194</v>
       </c>
       <c r="B1785" t="inlineStr">
         <is>
-          <t>VTX</t>
+          <t>VTV</t>
         </is>
       </c>
       <c r="C1785" t="n">
@@ -41483,22 +41483,22 @@
       </c>
       <c r="D1785" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1785" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vận tải Đa phương thức Vietranstimex</t>
+          <t>Công ty cổ phần Năng lượng và Môi trường Vicem</t>
         </is>
       </c>
     </row>
     <row r="1786">
       <c r="A1786" t="n">
-        <v>2668</v>
+        <v>1215</v>
       </c>
       <c r="B1786" t="inlineStr">
         <is>
-          <t>VTZ</t>
+          <t>VTX</t>
         </is>
       </c>
       <c r="C1786" t="n">
@@ -41506,22 +41506,22 @@
       </c>
       <c r="D1786" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1786" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Sản xuất và Thương mại Nhựa Việt Thành</t>
+          <t>Công ty Cổ phần Vận tải Đa phương thức Vietranstimex</t>
         </is>
       </c>
     </row>
     <row r="1787">
       <c r="A1787" t="n">
-        <v>2755</v>
+        <v>2668</v>
       </c>
       <c r="B1787" t="inlineStr">
         <is>
-          <t>VUA</t>
+          <t>VTZ</t>
         </is>
       </c>
       <c r="C1787" t="n">
@@ -41529,22 +41529,22 @@
       </c>
       <c r="D1787" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1787" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần chứng khoán Stanley Brothers</t>
+          <t>Công ty Cổ phần Sản xuất và Thương mại Nhựa Việt Thành</t>
         </is>
       </c>
     </row>
     <row r="1788">
       <c r="A1788" t="n">
-        <v>1567</v>
+        <v>2755</v>
       </c>
       <c r="B1788" t="inlineStr">
         <is>
-          <t>VVN</t>
+          <t>VUA</t>
         </is>
       </c>
       <c r="C1788" t="n">
@@ -41557,17 +41557,17 @@
       </c>
       <c r="E1788" t="inlineStr">
         <is>
-          <t>Tổng công ty Cổ phần Xây dựng Công nghiệp Việt Nam</t>
+          <t>Công ty Cổ phần chứng khoán Stanley Brothers</t>
         </is>
       </c>
     </row>
     <row r="1789">
       <c r="A1789" t="n">
-        <v>2237</v>
+        <v>1567</v>
       </c>
       <c r="B1789" t="inlineStr">
         <is>
-          <t>VW3</t>
+          <t>VVN</t>
         </is>
       </c>
       <c r="C1789" t="n">
@@ -41580,17 +41580,17 @@
       </c>
       <c r="E1789" t="inlineStr">
         <is>
-          <t>Công ty cổ phần Viwaseen3</t>
+          <t>Tổng công ty Cổ phần Xây dựng Công nghiệp Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1790">
       <c r="A1790" t="n">
-        <v>1488</v>
+        <v>2237</v>
       </c>
       <c r="B1790" t="inlineStr">
         <is>
-          <t>VWS</t>
+          <t>VW3</t>
         </is>
       </c>
       <c r="C1790" t="n">
@@ -41603,17 +41603,17 @@
       </c>
       <c r="E1790" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Nước và Môi trường Việt Nam</t>
+          <t>Công ty cổ phần Viwaseen3</t>
         </is>
       </c>
     </row>
     <row r="1791">
       <c r="A1791" t="n">
-        <v>779</v>
+        <v>1488</v>
       </c>
       <c r="B1791" t="inlineStr">
         <is>
-          <t>VXB</t>
+          <t>VWS</t>
         </is>
       </c>
       <c r="C1791" t="n">
@@ -41626,17 +41626,17 @@
       </c>
       <c r="E1791" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vật liệu Xây dựng Bến Tre</t>
+          <t>Công ty Cổ phần Nước và Môi trường Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1792">
       <c r="A1792" t="n">
-        <v>1858</v>
+        <v>779</v>
       </c>
       <c r="B1792" t="inlineStr">
         <is>
-          <t>VXP</t>
+          <t>VXB</t>
         </is>
       </c>
       <c r="C1792" t="n">
@@ -41649,17 +41649,17 @@
       </c>
       <c r="E1792" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty cổ phần Thuốc Thú y Trung ương VETVACO </t>
+          <t>Công ty Cổ phần Vật liệu Xây dựng Bến Tre</t>
         </is>
       </c>
     </row>
     <row r="1793">
       <c r="A1793" t="n">
-        <v>2231</v>
+        <v>1858</v>
       </c>
       <c r="B1793" t="inlineStr">
         <is>
-          <t>VXT</t>
+          <t>VXP</t>
         </is>
       </c>
       <c r="C1793" t="n">
@@ -41672,17 +41672,17 @@
       </c>
       <c r="E1793" t="inlineStr">
         <is>
-          <t>Công ty cổ phần Kho vận và Dịch vụ Thương mại</t>
+          <t xml:space="preserve">Công ty cổ phần Thuốc Thú y Trung ương VETVACO </t>
         </is>
       </c>
     </row>
     <row r="1794">
       <c r="A1794" t="n">
-        <v>863</v>
+        <v>2231</v>
       </c>
       <c r="B1794" t="inlineStr">
         <is>
-          <t>WCS</t>
+          <t>VXT</t>
         </is>
       </c>
       <c r="C1794" t="n">
@@ -41690,22 +41690,22 @@
       </c>
       <c r="D1794" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1794" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Bến xe Miền Tây</t>
+          <t>Công ty cổ phần Kho vận và Dịch vụ Thương mại</t>
         </is>
       </c>
     </row>
     <row r="1795">
       <c r="A1795" t="n">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B1795" t="inlineStr">
         <is>
-          <t>WSB</t>
+          <t>WCS</t>
         </is>
       </c>
       <c r="C1795" t="n">
@@ -41713,22 +41713,22 @@
       </c>
       <c r="D1795" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1795" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Bia Sài Gòn - Miền Tây</t>
+          <t>Công ty Cổ phần Bến xe Miền Tây</t>
         </is>
       </c>
     </row>
     <row r="1796">
       <c r="A1796" t="n">
-        <v>617</v>
+        <v>864</v>
       </c>
       <c r="B1796" t="inlineStr">
         <is>
-          <t>WSS</t>
+          <t>WSB</t>
         </is>
       </c>
       <c r="C1796" t="n">
@@ -41736,22 +41736,22 @@
       </c>
       <c r="D1796" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1796" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Chứng khoán Phố Wall</t>
+          <t>Công ty Cổ phần Bia Sài Gòn - Miền Tây</t>
         </is>
       </c>
     </row>
     <row r="1797">
       <c r="A1797" t="n">
-        <v>804</v>
+        <v>617</v>
       </c>
       <c r="B1797" t="inlineStr">
         <is>
-          <t>WTC</t>
+          <t>WSS</t>
         </is>
       </c>
       <c r="C1797" t="n">
@@ -41759,22 +41759,22 @@
       </c>
       <c r="D1797" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1797" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Vận tải thuỷ - VINACOMIN</t>
+          <t>Công ty Cổ phần Chứng khoán Phố Wall</t>
         </is>
       </c>
     </row>
     <row r="1798">
       <c r="A1798" t="n">
-        <v>1850</v>
+        <v>804</v>
       </c>
       <c r="B1798" t="inlineStr">
         <is>
-          <t>X20</t>
+          <t>WTC</t>
         </is>
       </c>
       <c r="C1798" t="n">
@@ -41782,22 +41782,22 @@
       </c>
       <c r="D1798" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1798" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần X20 </t>
+          <t>Công ty Cổ phần Vận tải thuỷ - VINACOMIN</t>
         </is>
       </c>
     </row>
     <row r="1799">
       <c r="A1799" t="n">
-        <v>1963</v>
+        <v>1850</v>
       </c>
       <c r="B1799" t="inlineStr">
         <is>
-          <t>X26</t>
+          <t>X20</t>
         </is>
       </c>
       <c r="C1799" t="n">
@@ -41805,22 +41805,22 @@
       </c>
       <c r="D1799" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="E1799" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty cổ phần 26 </t>
+          <t xml:space="preserve">Công ty Cổ phần X20 </t>
         </is>
       </c>
     </row>
     <row r="1800">
       <c r="A1800" t="n">
-        <v>1687</v>
+        <v>1963</v>
       </c>
       <c r="B1800" t="inlineStr">
         <is>
-          <t>X77</t>
+          <t>X26</t>
         </is>
       </c>
       <c r="C1800" t="n">
@@ -41833,17 +41833,17 @@
       </c>
       <c r="E1800" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Thành An 77</t>
+          <t xml:space="preserve">Công ty cổ phần 26 </t>
         </is>
       </c>
     </row>
     <row r="1801">
       <c r="A1801" t="n">
-        <v>1996</v>
+        <v>1687</v>
       </c>
       <c r="B1801" t="inlineStr">
         <is>
-          <t>XDH</t>
+          <t>X77</t>
         </is>
       </c>
       <c r="C1801" t="n">
@@ -41856,17 +41856,17 @@
       </c>
       <c r="E1801" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Đầu tư Xây dựng Dân dụng Hà Nội </t>
+          <t>Công ty Cổ phần Thành An 77</t>
         </is>
       </c>
     </row>
     <row r="1802">
       <c r="A1802" t="n">
-        <v>1534</v>
+        <v>1996</v>
       </c>
       <c r="B1802" t="inlineStr">
         <is>
-          <t>XHC</t>
+          <t>XDH</t>
         </is>
       </c>
       <c r="C1802" t="n">
@@ -41879,17 +41879,17 @@
       </c>
       <c r="E1802" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xuân Hòa Việt Nam</t>
+          <t xml:space="preserve">Công ty Cổ phần Đầu tư Xây dựng Dân dụng Hà Nội </t>
         </is>
       </c>
     </row>
     <row r="1803">
       <c r="A1803" t="n">
-        <v>1918</v>
+        <v>1534</v>
       </c>
       <c r="B1803" t="inlineStr">
         <is>
-          <t>XLV</t>
+          <t>XHC</t>
         </is>
       </c>
       <c r="C1803" t="n">
@@ -41902,17 +41902,17 @@
       </c>
       <c r="E1803" t="inlineStr">
         <is>
-          <t>Công ty cổ phần Xây lắp và Dịch vụ Sông Đà</t>
+          <t>Công ty Cổ phần Xuân Hòa Việt Nam</t>
         </is>
       </c>
     </row>
     <row r="1804">
       <c r="A1804" t="n">
-        <v>287</v>
+        <v>1918</v>
       </c>
       <c r="B1804" t="inlineStr">
         <is>
-          <t>XMC</t>
+          <t>XLV</t>
         </is>
       </c>
       <c r="C1804" t="n">
@@ -41925,17 +41925,17 @@
       </c>
       <c r="E1804" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Đầu tư và Xây dựng Xuân Mai</t>
+          <t>Công ty cổ phần Xây lắp và Dịch vụ Sông Đà</t>
         </is>
       </c>
     </row>
     <row r="1805">
       <c r="A1805" t="n">
-        <v>1211</v>
+        <v>287</v>
       </c>
       <c r="B1805" t="inlineStr">
         <is>
-          <t>XMD</t>
+          <t>XMC</t>
         </is>
       </c>
       <c r="C1805" t="n">
@@ -41948,17 +41948,17 @@
       </c>
       <c r="E1805" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xuân Mai - Đạo Tú</t>
+          <t>Công ty Cổ phần Đầu tư và Xây dựng Xuân Mai</t>
         </is>
       </c>
     </row>
     <row r="1806">
       <c r="A1806" t="n">
-        <v>2504</v>
+        <v>1211</v>
       </c>
       <c r="B1806" t="inlineStr">
         <is>
-          <t>XMP</t>
+          <t>XMD</t>
         </is>
       </c>
       <c r="C1806" t="n">
@@ -41971,17 +41971,17 @@
       </c>
       <c r="E1806" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Thủy điện Xuân Minh</t>
+          <t>Công ty Cổ phần Xuân Mai - Đạo Tú</t>
         </is>
       </c>
     </row>
     <row r="1807">
       <c r="A1807" t="n">
-        <v>1267</v>
+        <v>2504</v>
       </c>
       <c r="B1807" t="inlineStr">
         <is>
-          <t>XPH</t>
+          <t>XMP</t>
         </is>
       </c>
       <c r="C1807" t="n">
@@ -41994,17 +41994,17 @@
       </c>
       <c r="E1807" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xà phòng Hà Nội</t>
+          <t>Công ty Cổ phần Thủy điện Xuân Minh</t>
         </is>
       </c>
     </row>
     <row r="1808">
       <c r="A1808" t="n">
-        <v>333</v>
+        <v>1267</v>
       </c>
       <c r="B1808" t="inlineStr">
         <is>
-          <t>YBC</t>
+          <t>XPH</t>
         </is>
       </c>
       <c r="C1808" t="n">
@@ -42017,17 +42017,17 @@
       </c>
       <c r="E1808" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Xi măng và Khoáng sản Yên Bái</t>
+          <t>Công ty Cổ phần Xà phòng Hà Nội</t>
         </is>
       </c>
     </row>
     <row r="1809">
       <c r="A1809" t="n">
-        <v>1983</v>
+        <v>333</v>
       </c>
       <c r="B1809" t="inlineStr">
         <is>
-          <t>YBM</t>
+          <t>YBC</t>
         </is>
       </c>
       <c r="C1809" t="n">
@@ -42035,22 +42035,22 @@
       </c>
       <c r="D1809" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="E1809" t="inlineStr">
         <is>
-          <t xml:space="preserve">Công ty Cổ phần Khoáng sản Công nghiệp Yên Bái </t>
+          <t>Công ty Cổ phần Xi măng và Khoáng sản Yên Bái</t>
         </is>
       </c>
     </row>
     <row r="1810">
       <c r="A1810" t="n">
-        <v>1965</v>
+        <v>1983</v>
       </c>
       <c r="B1810" t="inlineStr">
         <is>
-          <t>YEG</t>
+          <t>YBM</t>
         </is>
       </c>
       <c r="C1810" t="n">
@@ -42063,28 +42063,51 @@
       </c>
       <c r="E1810" t="inlineStr">
         <is>
-          <t>Công ty Cổ phần Tập đoàn Yeah1</t>
+          <t xml:space="preserve">Công ty Cổ phần Khoáng sản Công nghiệp Yên Bái </t>
         </is>
       </c>
     </row>
     <row r="1811">
       <c r="A1811" t="n">
+        <v>1965</v>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>YEG</t>
+        </is>
+      </c>
+      <c r="C1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1811" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="E1811" t="inlineStr">
+        <is>
+          <t>Công ty Cổ phần Tập đoàn Yeah1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="n">
         <v>1456</v>
       </c>
-      <c r="B1811" t="inlineStr">
+      <c r="B1812" t="inlineStr">
         <is>
           <t>YTC</t>
         </is>
       </c>
-      <c r="C1811" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1811" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="E1811" t="inlineStr">
+      <c r="C1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="E1812" t="inlineStr">
         <is>
           <t>Công ty Cổ phần Xuất nhập khẩu Y tế Thành phố Hồ Chí Minh</t>
         </is>
